--- a/Phantom-Phoenix/Assets/ExcelImporter/PhantomPhoenixCardList.xlsx
+++ b/Phantom-Phoenix/Assets/ExcelImporter/PhantomPhoenixCardList.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="cl" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">cl!$A$1:$AC$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">cl!$A$1:$AC$16</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="66">
   <si>
     <t>ID</t>
   </si>
@@ -63,12 +63,15 @@
     <t>R</t>
   </si>
   <si>
+    <t>unit011</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
     <t>unit122</t>
   </si>
   <si>
-    <t>none</t>
-  </si>
-  <si>
     <t>unit103</t>
   </si>
   <si>
@@ -186,13 +189,28 @@
     <t>unit517</t>
   </si>
   <si>
-    <t>貫通\n【召喚時】\n味方ヒーローは\nカードを2枚引く</t>
+    <t>貫通\n【攻撃時】\n味方ヒーローは\nカードを1枚引く</t>
   </si>
   <si>
     <t>driller</t>
   </si>
   <si>
-    <t>連撃\n【召喚時】\nこのバトル中\n元のATKが2以下の\n味方ユニットを+2/+2</t>
+    <t>【召喚時】\nこのバトル中\n元のATKが2以下の\n味方ユニットを+2/+2</t>
+  </si>
+  <si>
+    <t>unit656</t>
+  </si>
+  <si>
+    <t>unit644</t>
+  </si>
+  <si>
+    <t>【召喚時&amp;味方ターン終了時】\n味方フィールドに\n0/1/1を1体出す</t>
+  </si>
+  <si>
+    <t>unit633</t>
+  </si>
+  <si>
+    <t>即撃\n味方フィールドの\nユニットの数分コスト-1</t>
   </si>
 </sst>
 </file>
@@ -513,13 +531,13 @@
         <v>16</v>
       </c>
       <c r="F2" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G2" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H2" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>17</v>
@@ -554,13 +572,13 @@
         <v>1.0</v>
       </c>
       <c r="G3" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H3" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>17</v>
@@ -570,9 +588,6 @@
       </c>
       <c r="L3" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -589,31 +604,31 @@
         <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5">
@@ -627,34 +642,34 @@
         <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6">
@@ -668,34 +683,34 @@
         <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -709,34 +724,34 @@
         <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="F7" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -759,13 +774,13 @@
         <v>2.0</v>
       </c>
       <c r="G8" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="H8" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>17</v>
@@ -777,7 +792,7 @@
         <v>17</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
@@ -791,22 +806,22 @@
         <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>35</v>
+        <v>15</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="F9" s="1">
         <v>2.0</v>
       </c>
       <c r="G9" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="H9" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>17</v>
@@ -818,7 +833,7 @@
         <v>17</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10">
@@ -832,34 +847,34 @@
         <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="F10" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="11">
@@ -876,31 +891,31 @@
         <v>15</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="F11" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="12">
@@ -914,34 +929,34 @@
         <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="13">
@@ -955,22 +970,22 @@
         <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="F13" s="1">
         <v>3.0</v>
       </c>
       <c r="G13" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H13" s="1">
         <v>2.0</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>17</v>
@@ -982,7 +997,7 @@
         <v>17</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14">
@@ -996,31 +1011,34 @@
         <v>14</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="F14" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="G14" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -1046,7 +1064,7 @@
         <v>4.0</v>
       </c>
       <c r="H15" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>17</v>
@@ -1058,10 +1076,7 @@
         <v>17</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16">
@@ -1075,19 +1090,19 @@
         <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F16" s="1">
         <v>4.0</v>
       </c>
       <c r="G16" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H16" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>17</v>
@@ -1099,10 +1114,10 @@
         <v>17</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17">
@@ -1116,10 +1131,10 @@
         <v>14</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="F17" s="1">
         <v>4.0</v>
@@ -1128,7 +1143,7 @@
         <v>3.0</v>
       </c>
       <c r="H17" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>17</v>
@@ -1140,10 +1155,10 @@
         <v>17</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18">
@@ -1157,34 +1172,34 @@
         <v>14</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="F18" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H18" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="19">
@@ -1198,22 +1213,22 @@
         <v>14</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F19" s="1">
         <v>5.0</v>
       </c>
       <c r="G19" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H19" s="1">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>17</v>
@@ -1225,7 +1240,7 @@
         <v>17</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20">
@@ -1239,10 +1254,10 @@
         <v>14</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F20" s="1">
         <v>5.0</v>
@@ -1251,10 +1266,10 @@
         <v>1.0</v>
       </c>
       <c r="H20" s="1">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>17</v>
@@ -1266,25 +1281,189 @@
         <v>17</v>
       </c>
       <c r="M20" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="F21" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$AC$15"/>
+  <autoFilter ref="$A$1:$AC$16"/>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L2:L20">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L2:L24">
       <formula1>"none,unit,enemyUnit,playerUnit,hero,unitOrHero,enemy,player,area,selectionArea,selectionPlayerArea,selectionEnemyArea"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:K20">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:K24">
       <formula1>"fast,taunt,snipe,pierce,doubleAction,none"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C20">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C24">
       <formula1>"unit,spell,item"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B20">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B24">
       <formula1>"witch,elf,king,knight,devil,common"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D20">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D24">
       <formula1>"R,SR,SSR"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Phantom-Phoenix/Assets/ExcelImporter/PhantomPhoenixCardList.xlsx
+++ b/Phantom-Phoenix/Assets/ExcelImporter/PhantomPhoenixCardList.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="71">
   <si>
     <t>ID</t>
   </si>
@@ -72,7 +72,7 @@
     <t>unit122</t>
   </si>
   <si>
-    <t>unit103</t>
+    <t>unit102</t>
   </si>
   <si>
     <t>taunt</t>
@@ -111,7 +111,7 @@
     <t>【召喚時】\n味方ヒーローの\n最大MP-1</t>
   </si>
   <si>
-    <t>unit223</t>
+    <t>unit222</t>
   </si>
   <si>
     <t>unit232</t>
@@ -153,7 +153,7 @@
     <t>fireLord</t>
   </si>
   <si>
-    <t>挑発\n【召喚時&amp;死亡時】\n全てのユニットに\n2ダメージ</t>
+    <t>挑発\n【召喚時&amp;死亡時】\n全てのユニットに\n1ダメージ</t>
   </si>
   <si>
     <t>unit445</t>
@@ -195,7 +195,7 @@
     <t>driller</t>
   </si>
   <si>
-    <t>【召喚時】\nこのバトル中\n元のATKが2以下の\n味方ユニットを+2/+2</t>
+    <t>【召喚時】\nこのバトル中\n元のATKが2以下の\n味方ユニットを+1/+1</t>
   </si>
   <si>
     <t>unit656</t>
@@ -211,6 +211,21 @@
   </si>
   <si>
     <t>即撃\n味方フィールドの\nユニットの数分コスト-1</t>
+  </si>
+  <si>
+    <t>unit777</t>
+  </si>
+  <si>
+    <t>unit746</t>
+  </si>
+  <si>
+    <t>【召喚時】\nユニット1体を選ぶ\n味方ならHPを4回復\n敵なら4ダメージ</t>
+  </si>
+  <si>
+    <t>undead</t>
+  </si>
+  <si>
+    <t>【前列死亡時】\n後列に復活する\n【後列死亡時】\n前列に復活する</t>
   </si>
 </sst>
 </file>
@@ -613,7 +628,7 @@
         <v>0.0</v>
       </c>
       <c r="H4" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>20</v>
@@ -736,7 +751,7 @@
         <v>3.0</v>
       </c>
       <c r="H7" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>17</v>
@@ -777,7 +792,7 @@
         <v>2.0</v>
       </c>
       <c r="H8" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>20</v>
@@ -1409,7 +1424,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>13</v>
@@ -1446,24 +1461,147 @@
       </c>
       <c r="M24" s="1" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="$A$1:$AC$16"/>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L2:L24">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L2:L27">
       <formula1>"none,unit,enemyUnit,playerUnit,hero,unitOrHero,enemy,player,area,selectionArea,selectionPlayerArea,selectionEnemyArea"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:K24">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:K27">
       <formula1>"fast,taunt,snipe,pierce,doubleAction,none"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C24">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C27">
       <formula1>"unit,spell,item"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B24">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B27">
       <formula1>"witch,elf,king,knight,devil,common"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D24">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D27">
       <formula1>"R,SR,SSR"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Phantom-Phoenix/Assets/ExcelImporter/PhantomPhoenixCardList.xlsx
+++ b/Phantom-Phoenix/Assets/ExcelImporter/PhantomPhoenixCardList.xlsx
@@ -4,6 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="cl" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="token" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">cl!$A$1:$AC$16</definedName>
@@ -13,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="72">
   <si>
     <t>ID</t>
   </si>
@@ -226,6 +227,9 @@
   </si>
   <si>
     <t>【前列死亡時】\n後列に復活する\n【後列死亡時】\n前列に復活する</t>
+  </si>
+  <si>
+    <t>token222</t>
   </si>
 </sst>
 </file>
@@ -278,6 +282,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1243,7 +1251,7 @@
         <v>1.0</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>17</v>
@@ -1607,4 +1615,118 @@
   </dataValidations>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>10001.0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L2">
+      <formula1>"none,unit,enemyUnit,playerUnit,hero,unitOrHero,enemy,player,area,selectionArea,selectionPlayerArea,selectionEnemyArea"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:K2">
+      <formula1>"fast,taunt,snipe,pierce,doubleAction,none"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2">
+      <formula1>"unit,spell,item"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2">
+      <formula1>"witch,elf,king,knight,devil,common"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2">
+      <formula1>"R,SR,SSR"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Phantom-Phoenix/Assets/ExcelImporter/PhantomPhoenixCardList.xlsx
+++ b/Phantom-Phoenix/Assets/ExcelImporter/PhantomPhoenixCardList.xlsx
@@ -181,10 +181,10 @@
     <t>【召喚時】\n味方ヒーローの\nHPを5回復</t>
   </si>
   <si>
-    <t>unit501</t>
-  </si>
-  <si>
-    <t>【死亡時】\n全ての敵ユニットを\n燃焼させる</t>
+    <t>unit521</t>
+  </si>
+  <si>
+    <t>挑発\n【死亡時】\n全ての敵ユニットを\n燃焼させる</t>
   </si>
   <si>
     <t>unit517</t>
@@ -1245,7 +1245,7 @@
         <v>5.0</v>
       </c>
       <c r="G19" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H19" s="1">
         <v>1.0</v>

--- a/Phantom-Phoenix/Assets/ExcelImporter/PhantomPhoenixCardList.xlsx
+++ b/Phantom-Phoenix/Assets/ExcelImporter/PhantomPhoenixCardList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="84">
   <si>
     <t>ID</t>
   </si>
@@ -70,6 +70,9 @@
     <t>none</t>
   </si>
   <si>
+    <t>SR</t>
+  </si>
+  <si>
     <t>unit122</t>
   </si>
   <si>
@@ -142,9 +145,6 @@
     <t>【味方ターン終了時】\nHPを1回復</t>
   </si>
   <si>
-    <t>SR</t>
-  </si>
-  <si>
     <t>unit322</t>
   </si>
   <si>
@@ -227,6 +227,42 @@
   </si>
   <si>
     <t>【前列死亡時】\n後列に復活する\n【後列死亡時】\n前列に復活する</t>
+  </si>
+  <si>
+    <t>unit877</t>
+  </si>
+  <si>
+    <t>【召喚時】\n最大HPは1～13の\nランダムな値となる\nATKはHP-13となる</t>
+  </si>
+  <si>
+    <t>unit863</t>
+  </si>
+  <si>
+    <t>【召喚時】\nランダムな味方ユニットを\n死亡させ、そうした場合、\nランダムな敵ユニットを\n死亡させる</t>
+  </si>
+  <si>
+    <t>gargoyle</t>
+  </si>
+  <si>
+    <t>【死亡時】\n全ての味方ユニットに\n狙撃を付与する</t>
+  </si>
+  <si>
+    <t>unit925</t>
+  </si>
+  <si>
+    <t>【召喚時】\n全てのユニットに\n4ダメージ</t>
+  </si>
+  <si>
+    <t>unit945</t>
+  </si>
+  <si>
+    <t>【召喚時】\n1/0/2 挑発\n 2/2/2 挑発\n 1/2/1 狙撃\n 2/3/2 貫通\nを出す</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hellhound </t>
+  </si>
+  <si>
+    <t>【召喚時】\n味方フィールドの\nユニットを+2/+2\n敵フィールドの\nユニットを-2/-2</t>
   </si>
   <si>
     <t>token222</t>
@@ -586,10 +622,10 @@
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1">
         <v>1.0</v>
@@ -627,7 +663,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1">
         <v>1.0</v>
@@ -639,7 +675,7 @@
         <v>2.0</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>17</v>
@@ -651,7 +687,7 @@
         <v>17</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -668,7 +704,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" s="1">
         <v>1.0</v>
@@ -680,7 +716,7 @@
         <v>1.0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>17</v>
@@ -692,7 +728,7 @@
         <v>17</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
@@ -706,10 +742,10 @@
         <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" s="1">
         <v>1.0</v>
@@ -721,19 +757,19 @@
         <v>1.0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -747,10 +783,10 @@
         <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" s="1">
         <v>1.0</v>
@@ -774,7 +810,7 @@
         <v>17</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -791,7 +827,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F8" s="1">
         <v>2.0</v>
@@ -803,7 +839,7 @@
         <v>2.0</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>17</v>
@@ -815,7 +851,7 @@
         <v>17</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
@@ -832,7 +868,7 @@
         <v>15</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F9" s="1">
         <v>2.0</v>
@@ -844,7 +880,7 @@
         <v>2.0</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>17</v>
@@ -856,7 +892,7 @@
         <v>17</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
@@ -870,10 +906,10 @@
         <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F10" s="1">
         <v>2.0</v>
@@ -885,7 +921,7 @@
         <v>1.0</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>17</v>
@@ -897,7 +933,7 @@
         <v>17</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11">
@@ -914,7 +950,7 @@
         <v>15</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F11" s="1">
         <v>3.0</v>
@@ -938,7 +974,7 @@
         <v>17</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
@@ -955,7 +991,7 @@
         <v>15</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F12" s="1">
         <v>3.0</v>
@@ -979,7 +1015,7 @@
         <v>17</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13">
@@ -993,7 +1029,7 @@
         <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>43</v>
@@ -1034,7 +1070,7 @@
         <v>14</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>45</v>
@@ -1049,7 +1085,7 @@
         <v>2.0</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>17</v>
@@ -1154,7 +1190,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>51</v>
@@ -1195,7 +1231,7 @@
         <v>14</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>53</v>
@@ -1236,7 +1272,7 @@
         <v>14</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>55</v>
@@ -1251,7 +1287,7 @@
         <v>1.0</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>17</v>
@@ -1277,7 +1313,7 @@
         <v>14</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>57</v>
@@ -1292,7 +1328,7 @@
         <v>7.0</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>17</v>
@@ -1318,7 +1354,7 @@
         <v>14</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>59</v>
@@ -1374,7 +1410,7 @@
         <v>6.0</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>17</v>
@@ -1386,7 +1422,7 @@
         <v>17</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
@@ -1441,7 +1477,7 @@
         <v>14</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>64</v>
@@ -1456,7 +1492,7 @@
         <v>3.0</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>17</v>
@@ -1497,7 +1533,7 @@
         <v>7.0</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>17</v>
@@ -1509,7 +1545,7 @@
         <v>17</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26">
@@ -1523,7 +1559,7 @@
         <v>14</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>67</v>
@@ -1564,7 +1600,7 @@
         <v>14</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>69</v>
@@ -1592,24 +1628,270 @@
       </c>
       <c r="M27" s="1" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>28.0</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1">
+        <v>29.0</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1">
+        <v>31.0</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F32" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F33" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="$A$1:$AC$16"/>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L2:L27">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L2:L33">
       <formula1>"none,unit,enemyUnit,playerUnit,hero,unitOrHero,enemy,player,area,selectionArea,selectionPlayerArea,selectionEnemyArea"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:K27">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:K33">
       <formula1>"fast,taunt,snipe,pierce,doubleAction,none"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C27">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C33">
       <formula1>"unit,spell,item"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B27">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B33">
       <formula1>"witch,elf,king,knight,devil,common"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D27">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D33">
       <formula1>"R,SR,SSR"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1679,10 +1961,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="F2" s="1">
         <v>2.0</v>
@@ -1694,7 +1976,7 @@
         <v>2.0</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>17</v>
@@ -1706,7 +1988,7 @@
         <v>17</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Phantom-Phoenix/Assets/ExcelImporter/PhantomPhoenixCardList.xlsx
+++ b/Phantom-Phoenix/Assets/ExcelImporter/PhantomPhoenixCardList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="128">
   <si>
     <t>ID</t>
   </si>
@@ -211,7 +211,7 @@
     <t>unit633</t>
   </si>
   <si>
-    <t>即撃\n味方フィールドの\nユニットの数分コスト-1</t>
+    <t>即撃\n味方ユニットの\n数分コスト-1</t>
   </si>
   <si>
     <t>unit777</t>
@@ -244,7 +244,7 @@
     <t>gargoyle</t>
   </si>
   <si>
-    <t>【死亡時】\n全ての味方ユニットに\n狙撃を付与する</t>
+    <t>狙撃　連撃\n【死亡時】\n全ての味方ユニットに\n狙撃を付与する</t>
   </si>
   <si>
     <t>unit925</t>
@@ -262,10 +262,142 @@
     <t xml:space="preserve">hellhound </t>
   </si>
   <si>
-    <t>【召喚時】\n味方フィールドの\nユニットを+2/+2\n敵フィールドの\nユニットを-2/-2</t>
-  </si>
-  <si>
-    <t>token222</t>
+    <t>即撃\n【召喚時】\n味方フィールドの\nユニットを+2/+2\n敵フィールドの\nユニットを-2/-2</t>
+  </si>
+  <si>
+    <t>elf</t>
+  </si>
+  <si>
+    <t>uelf101</t>
+  </si>
+  <si>
+    <t>【死亡時】\nこの場所に\n1/1/1を1体出す</t>
+  </si>
+  <si>
+    <t>uelf221</t>
+  </si>
+  <si>
+    <t>【テンション上昇時】\n味方フィールドに\n1/1/1を1体出す</t>
+  </si>
+  <si>
+    <t>uelf212</t>
+  </si>
+  <si>
+    <t>挑発\n【前列生存時】\n1コスト以下の\n味方ユニットの\nATK+1</t>
+  </si>
+  <si>
+    <t>uelf222</t>
+  </si>
+  <si>
+    <t>【攻撃時】\n味方フィールドに\n1/1/1を1体出す</t>
+  </si>
+  <si>
+    <t>spell</t>
+  </si>
+  <si>
+    <t>self2</t>
+  </si>
+  <si>
+    <t>味方ヒーローの\nテンション+1\nカードを1枚引く</t>
+  </si>
+  <si>
+    <t>uelf312</t>
+  </si>
+  <si>
+    <t>【召喚時】\nこのユニットの上下に\n1/1/1を出す</t>
+  </si>
+  <si>
+    <t>uelf301</t>
+  </si>
+  <si>
+    <t>【召喚時】\n1コスト以下の\n全ての味方ユニットを\n死亡させる\n死亡させた数分+1/+1</t>
+  </si>
+  <si>
+    <t>self3</t>
+  </si>
+  <si>
+    <t>敵ユニット1体に\n1ダメージ\n1コスト以下の\n味方ユニットの数分\n+1ダメージ</t>
+  </si>
+  <si>
+    <t>guarda</t>
+  </si>
+  <si>
+    <t>即撃\n【召喚時】\n1コスト以下の\n味方ユニットの数分\nATK+1</t>
+  </si>
+  <si>
+    <t>guardb</t>
+  </si>
+  <si>
+    <t>挑発　狙撃　貫通\n【召喚時】\n1コスト以下の\n味方ユニットの数分\nHP+1</t>
+  </si>
+  <si>
+    <t>uelf423</t>
+  </si>
+  <si>
+    <t>貫通\n【召喚時】\n1コスト以下の\n味方ユニットの数分、\n味方ヒーローのHPを回復</t>
+  </si>
+  <si>
+    <t>uelf416</t>
+  </si>
+  <si>
+    <t>挑発\n【被攻撃時】\n味方フィールドに\n1/1/1を1体出す</t>
+  </si>
+  <si>
+    <t>uelf433</t>
+  </si>
+  <si>
+    <t>【召喚時】\n1コスト以下の\n全ての味方ユニットを\n死亡させる\n死亡させた数分\nカードを引く</t>
+  </si>
+  <si>
+    <t>self4</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>全ての敵ユニットに\n1ダメージ\n1/1/1を3体出す</t>
+  </si>
+  <si>
+    <t>uelf542</t>
+  </si>
+  <si>
+    <t>【召喚時】\n味方と敵の\n全てのフィールドに\n1/1/1を出し\n即撃を付与する</t>
+  </si>
+  <si>
+    <t>uelf525</t>
+  </si>
+  <si>
+    <t>【味方ターン終了時】\n前列にいるなら、\n1/1/1を2体出す</t>
+  </si>
+  <si>
+    <t>uelf622</t>
+  </si>
+  <si>
+    <t>【召喚時】\n敵1体に1ダメージ\n1コスト以下の\n味方ユニットの数分\n+1ダメージ</t>
+  </si>
+  <si>
+    <t>uelf633</t>
+  </si>
+  <si>
+    <t>【テンション上昇時】\n味方フィールドに\n1/1/1を2体出す</t>
+  </si>
+  <si>
+    <t>uelf711</t>
+  </si>
+  <si>
+    <t>この対戦中に死亡した\n1コスト以下の\n味方ユニットの\n数分+1/+1</t>
+  </si>
+  <si>
+    <t>uelf955</t>
+  </si>
+  <si>
+    <t>1コスト以下の\n味方ユニットの\n数分コスト-1</t>
+  </si>
+  <si>
+    <t>telf122</t>
+  </si>
+  <si>
+    <t>telf111</t>
   </si>
 </sst>
 </file>
@@ -1876,22 +2008,842 @@
         <v>82</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" s="1">
+        <v>33.0</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F35" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F36" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1">
+        <v>36.0</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1">
+        <v>37.0</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F38" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F39" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F40" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F41" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F42" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1">
+        <v>42.0</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F43" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G43" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1">
+        <v>43.0</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F44" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1">
+        <v>44.0</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F45" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F46" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G46" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1">
+        <v>46.0</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F47" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1">
+        <v>47.0</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F48" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H48" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1">
+        <v>48.0</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F49" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="G49" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H49" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1">
+        <v>49.0</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F50" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="G50" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H50" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F51" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="G51" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H51" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1">
+        <v>51.0</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F52" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H52" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1">
+        <v>52.0</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F53" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="G53" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H53" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="$A$1:$AC$16"/>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L2:L33">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L2:L53">
       <formula1>"none,unit,enemyUnit,playerUnit,hero,unitOrHero,enemy,player,area,selectionArea,selectionPlayerArea,selectionEnemyArea"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:K33">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:K53">
       <formula1>"fast,taunt,snipe,pierce,doubleAction,none"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C33">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C53">
       <formula1>"unit,spell,item"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B33">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B53">
       <formula1>"witch,elf,king,knight,devil,common"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D33">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D53">
       <formula1>"R,SR,SSR"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1955,7 +2907,7 @@
         <v>10001.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>14</v>
@@ -1964,10 +2916,10 @@
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="F2" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G2" s="1">
         <v>2.0</v>
@@ -1991,21 +2943,59 @@
         <v>38</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>10002.0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L2:L3">
       <formula1>"none,unit,enemyUnit,playerUnit,hero,unitOrHero,enemy,player,area,selectionArea,selectionPlayerArea,selectionEnemyArea"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:K2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:K3">
       <formula1>"fast,taunt,snipe,pierce,doubleAction,none"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C3">
       <formula1>"unit,spell,item"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B3">
       <formula1>"witch,elf,king,knight,devil,common"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D3">
       <formula1>"R,SR,SSR"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Phantom-Phoenix/Assets/ExcelImporter/PhantomPhoenixCardList.xlsx
+++ b/Phantom-Phoenix/Assets/ExcelImporter/PhantomPhoenixCardList.xlsx
@@ -283,7 +283,7 @@
     <t>uelf212</t>
   </si>
   <si>
-    <t>挑発\n【前列生存時】\n1コスト以下の\n味方ユニットの\nATK+1</t>
+    <t>挑発\n1コスト以下の\n味方ユニットがいるなら\n+1/+1</t>
   </si>
   <si>
     <t>uelf222</t>
@@ -298,6 +298,9 @@
     <t>self2</t>
   </si>
   <si>
+    <t>area</t>
+  </si>
+  <si>
     <t>味方ヒーローの\nテンション+1\nカードを1枚引く</t>
   </si>
   <si>
@@ -350,9 +353,6 @@
   </si>
   <si>
     <t>self4</t>
-  </si>
-  <si>
-    <t>area</t>
   </si>
   <si>
     <t>全ての敵ユニットに\n1ダメージ\n1/1/1を3体出す</t>
@@ -2207,10 +2207,10 @@
         <v>17</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39">
@@ -2227,7 +2227,7 @@
         <v>15</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F39" s="1">
         <v>3.0</v>
@@ -2251,7 +2251,7 @@
         <v>17</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40">
@@ -2268,7 +2268,7 @@
         <v>18</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F40" s="1">
         <v>3.0</v>
@@ -2292,7 +2292,7 @@
         <v>17</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41">
@@ -2309,7 +2309,7 @@
         <v>18</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F41" s="1">
         <v>3.0</v>
@@ -2333,7 +2333,7 @@
         <v>49</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42">
@@ -2350,7 +2350,7 @@
         <v>26</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F42" s="1">
         <v>3.0</v>
@@ -2374,7 +2374,7 @@
         <v>17</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43">
@@ -2391,7 +2391,7 @@
         <v>26</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F43" s="1">
         <v>3.0</v>
@@ -2415,7 +2415,7 @@
         <v>17</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44">
@@ -2432,7 +2432,7 @@
         <v>15</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F44" s="1">
         <v>4.0</v>
@@ -2456,7 +2456,7 @@
         <v>17</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45">
@@ -2473,7 +2473,7 @@
         <v>15</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F45" s="1">
         <v>4.0</v>
@@ -2497,7 +2497,7 @@
         <v>17</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46">
@@ -2514,7 +2514,7 @@
         <v>18</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F46" s="1">
         <v>4.0</v>
@@ -2538,7 +2538,7 @@
         <v>17</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47">
@@ -2555,7 +2555,7 @@
         <v>15</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F47" s="1">
         <v>4.0</v>
@@ -2576,7 +2576,7 @@
         <v>17</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>113</v>

--- a/Phantom-Phoenix/Assets/ExcelImporter/PhantomPhoenixCardList.xlsx
+++ b/Phantom-Phoenix/Assets/ExcelImporter/PhantomPhoenixCardList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="129">
   <si>
     <t>ID</t>
   </si>
@@ -319,7 +319,7 @@
     <t>self3</t>
   </si>
   <si>
-    <t>敵ユニット1体に\n1ダメージ\n1コスト以下の\n味方ユニットの数分\n+1ダメージ</t>
+    <t>敵ユニット1体に\n1ダメージ\n1コスト以下の\n味方ユニットの数分\nダメージ+!</t>
   </si>
   <si>
     <t>guarda</t>
@@ -337,13 +337,13 @@
     <t>uelf423</t>
   </si>
   <si>
-    <t>貫通\n【召喚時】\n1コスト以下の\n味方ユニットの数分、\n味方ヒーローのHPを回復</t>
+    <t>【召喚時】\n味方ヒーローのHPを1回復\n1コスト以下の\n味方ユニットの数分、\n回復量+1</t>
   </si>
   <si>
     <t>uelf416</t>
   </si>
   <si>
-    <t>挑発\n【被攻撃時】\n味方フィールドに\n1/1/1を1体出す</t>
+    <t>挑発\n【攻撃時&amp;被攻撃時】\n味方フィールドに\n1/1/1を1体出す</t>
   </si>
   <si>
     <t>uelf433</t>
@@ -361,7 +361,7 @@
     <t>uelf542</t>
   </si>
   <si>
-    <t>【召喚時】\n味方と敵の\n全てのフィールドに\n1/1/1を出し\n即撃を付与する</t>
+    <t>【召喚時】\n味方と敵の\n全てのフィールドに\n1/1/1を出す</t>
   </si>
   <si>
     <t>uelf525</t>
@@ -373,7 +373,10 @@
     <t>uelf622</t>
   </si>
   <si>
-    <t>【召喚時】\n敵1体に1ダメージ\n1コスト以下の\n味方ユニットの数分\n+1ダメージ</t>
+    <t>enemy</t>
+  </si>
+  <si>
+    <t>【召喚時】\n敵1体に0ダメージ\n1コスト以下の\n味方ユニットの数分\nダメージ+1</t>
   </si>
   <si>
     <t>uelf633</t>
@@ -1047,7 +1050,7 @@
         <v>2.0</v>
       </c>
       <c r="G10" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="H10" s="1">
         <v>1.0</v>
@@ -2444,7 +2447,7 @@
         <v>3.0</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>17</v>
@@ -2699,10 +2702,10 @@
         <v>17</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51">
@@ -2719,7 +2722,7 @@
         <v>15</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F51" s="1">
         <v>6.0</v>
@@ -2743,7 +2746,7 @@
         <v>17</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52">
@@ -2760,7 +2763,7 @@
         <v>18</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F52" s="1">
         <v>7.0</v>
@@ -2784,7 +2787,7 @@
         <v>17</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53">
@@ -2801,7 +2804,7 @@
         <v>18</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F53" s="1">
         <v>9.0</v>
@@ -2825,7 +2828,7 @@
         <v>17</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2916,7 +2919,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F2" s="1">
         <v>1.0</v>
@@ -2957,7 +2960,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F3" s="1">
         <v>1.0</v>

--- a/Phantom-Phoenix/Assets/ExcelImporter/PhantomPhoenixCardList.xlsx
+++ b/Phantom-Phoenix/Assets/ExcelImporter/PhantomPhoenixCardList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="171">
   <si>
     <t>ID</t>
   </si>
@@ -395,6 +395,132 @@
   </si>
   <si>
     <t>1コスト以下の\n味方ユニットの\n数分コスト-1</t>
+  </si>
+  <si>
+    <t>witch</t>
+  </si>
+  <si>
+    <t>switch0</t>
+  </si>
+  <si>
+    <t>unitOrHero</t>
+  </si>
+  <si>
+    <t>1ダメージ\n味方ヒーローに\n固定1ダメージ</t>
+  </si>
+  <si>
+    <t>switch1</t>
+  </si>
+  <si>
+    <t>全ての敵ユニットに\n1ダメージ\n味方ヒーローに1ダメージ</t>
+  </si>
+  <si>
+    <t>uwitch221</t>
+  </si>
+  <si>
+    <t>【死亡時】\n味方ヒーローは\nデッキから\nスペルを1枚引く</t>
+  </si>
+  <si>
+    <t>uwitch223</t>
+  </si>
+  <si>
+    <t>狙撃\n【スペル使用時】\nATK+1</t>
+  </si>
+  <si>
+    <t>switch2d</t>
+  </si>
+  <si>
+    <t>2ダメージ\n味方ヒーローに\n固定1ダメージ</t>
+  </si>
+  <si>
+    <t>switch2h</t>
+  </si>
+  <si>
+    <t>HPを3回復する\nカードを1枚引く</t>
+  </si>
+  <si>
+    <t>uwitch315</t>
+  </si>
+  <si>
+    <t>味方ヒーローの\nスペルダメージ+1</t>
+  </si>
+  <si>
+    <t>iceMaiden</t>
+  </si>
+  <si>
+    <t>挑発\n【召喚時&amp;死亡時】\n全ての味方を\n1回復する</t>
+  </si>
+  <si>
+    <t>uwitch425</t>
+  </si>
+  <si>
+    <t>貫通\n【スペル使用時】\nHP+1</t>
+  </si>
+  <si>
+    <t>uwitch433</t>
+  </si>
+  <si>
+    <t>挑発\n【スペル使用時】\n前列にいるなら、\n味方ヒーローの\nテンション+1</t>
+  </si>
+  <si>
+    <t>switch4d</t>
+  </si>
+  <si>
+    <t>4ダメージ\n味方ヒーローに\n固定2ダメージ</t>
+  </si>
+  <si>
+    <t>switch4h</t>
+  </si>
+  <si>
+    <t>HPを6回復する\nカードを2枚引く</t>
+  </si>
+  <si>
+    <t>uwitch545</t>
+  </si>
+  <si>
+    <t>【味方ターン終了時】\n味方ヒーローの\nHPを2回復し、\nランダムな敵ユニットに\n1ダメージ</t>
+  </si>
+  <si>
+    <t>switch5</t>
+  </si>
+  <si>
+    <t>コスト3以下の\n全ての敵ユニットを\n死亡させる</t>
+  </si>
+  <si>
+    <t>uwitch624</t>
+  </si>
+  <si>
+    <t>即撃　狙撃\nこの対戦中に使用した\nスペルの数分\nコスト-1</t>
+  </si>
+  <si>
+    <t>zodiac</t>
+  </si>
+  <si>
+    <t>【召喚時】両ヒーローに\n7ダメージ</t>
+  </si>
+  <si>
+    <t>uwitch744</t>
+  </si>
+  <si>
+    <t>【召喚時】\n次に使うスペルの\nコスト-3\nこの効果は重複しない</t>
+  </si>
+  <si>
+    <t>switch7</t>
+  </si>
+  <si>
+    <t>全てのユニットに\n5ダメージ\n味方ヒーローに\n固定3ダメージ</t>
+  </si>
+  <si>
+    <t>switch10</t>
+  </si>
+  <si>
+    <t>敵全体に2ダメージ\n味方ヒーローの\nテンションが最大なら\nダメージ+3し、\nテンション-3</t>
+  </si>
+  <si>
+    <t>switch20</t>
+  </si>
+  <si>
+    <t>6ダメージ\n味方ヒーローに\n固定3ダメージ\nこの対戦中に使用した\nスペルの数分\nコスト-1</t>
   </si>
   <si>
     <t>telf122</t>
@@ -407,7 +533,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -418,6 +544,10 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -434,7 +564,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -443,6 +573,27 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2831,22 +2982,922 @@
         <v>126</v>
       </c>
     </row>
+    <row r="54">
+      <c r="A54" s="1">
+        <v>53.0</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F54" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G54" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H54" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="M54" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="8"/>
+      <c r="R54" s="8"/>
+      <c r="S54" s="8"/>
+      <c r="T54" s="8"/>
+      <c r="U54" s="8"/>
+      <c r="V54" s="8"/>
+      <c r="W54" s="8"/>
+      <c r="X54" s="8"/>
+      <c r="Y54" s="8"/>
+      <c r="Z54" s="8"/>
+      <c r="AA54" s="8"/>
+      <c r="AB54" s="8"/>
+      <c r="AC54" s="8"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1">
+        <v>54.0</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F55" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G55" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H55" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L55" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="M55" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8"/>
+      <c r="S55" s="8"/>
+      <c r="T55" s="8"/>
+      <c r="U55" s="8"/>
+      <c r="V55" s="8"/>
+      <c r="W55" s="8"/>
+      <c r="X55" s="8"/>
+      <c r="Y55" s="8"/>
+      <c r="Z55" s="8"/>
+      <c r="AA55" s="8"/>
+      <c r="AB55" s="8"/>
+      <c r="AC55" s="8"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1">
+        <v>55.0</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F56" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G56" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H56" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1">
+        <v>56.0</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F57" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G57" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H57" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1">
+        <v>57.0</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F58" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1">
+        <v>58.0</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F59" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1">
+        <v>59.0</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F60" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H60" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F61" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G61" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H61" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1">
+        <v>61.0</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F62" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G62" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H62" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1">
+        <v>62.0</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F63" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G63" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H63" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1">
+        <v>63.0</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F64" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1">
+        <v>64.0</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F65" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1">
+        <v>65.0</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F66" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="G66" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H66" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1">
+        <v>66.0</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F67" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="G67" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H67" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L67" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M67" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="N67" s="8"/>
+      <c r="O67" s="8"/>
+      <c r="P67" s="8"/>
+      <c r="Q67" s="8"/>
+      <c r="R67" s="8"/>
+      <c r="S67" s="8"/>
+      <c r="T67" s="8"/>
+      <c r="U67" s="8"/>
+      <c r="V67" s="8"/>
+      <c r="W67" s="8"/>
+      <c r="X67" s="8"/>
+      <c r="Y67" s="8"/>
+      <c r="Z67" s="8"/>
+      <c r="AA67" s="8"/>
+      <c r="AB67" s="8"/>
+      <c r="AC67" s="8"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1">
+        <v>67.0</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F68" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="G68" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H68" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1">
+        <v>68.0</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F69" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="G69" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H69" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1">
+        <v>69.0</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F70" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="G70" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H70" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1">
+        <v>70.0</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F71" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="G71" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H71" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L71" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M71" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="N71" s="8"/>
+      <c r="O71" s="8"/>
+      <c r="P71" s="8"/>
+      <c r="Q71" s="8"/>
+      <c r="R71" s="8"/>
+      <c r="S71" s="8"/>
+      <c r="T71" s="8"/>
+      <c r="U71" s="8"/>
+      <c r="V71" s="8"/>
+      <c r="W71" s="8"/>
+      <c r="X71" s="8"/>
+      <c r="Y71" s="8"/>
+      <c r="Z71" s="8"/>
+      <c r="AA71" s="8"/>
+      <c r="AB71" s="8"/>
+      <c r="AC71" s="8"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1">
+        <v>71.0</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F72" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="G72" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H72" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L72" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M72" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="N72" s="8"/>
+      <c r="O72" s="8"/>
+      <c r="P72" s="8"/>
+      <c r="Q72" s="8"/>
+      <c r="R72" s="8"/>
+      <c r="S72" s="8"/>
+      <c r="T72" s="8"/>
+      <c r="U72" s="8"/>
+      <c r="V72" s="8"/>
+      <c r="W72" s="8"/>
+      <c r="X72" s="8"/>
+      <c r="Y72" s="8"/>
+      <c r="Z72" s="8"/>
+      <c r="AA72" s="8"/>
+      <c r="AB72" s="8"/>
+      <c r="AC72" s="8"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1">
+        <v>72.0</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F73" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H73" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="$A$1:$AC$16"/>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L2:L53">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L2:L73">
       <formula1>"none,unit,enemyUnit,playerUnit,hero,unitOrHero,enemy,player,area,selectionArea,selectionPlayerArea,selectionEnemyArea"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:K53">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:K73">
       <formula1>"fast,taunt,snipe,pierce,doubleAction,none"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C53">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C73">
       <formula1>"unit,spell,item"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B53">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B73">
       <formula1>"witch,elf,king,knight,devil,common"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D53">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D73">
       <formula1>"R,SR,SSR"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2919,7 +3970,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>127</v>
+        <v>169</v>
       </c>
       <c r="F2" s="1">
         <v>1.0</v>
@@ -2960,7 +4011,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>128</v>
+        <v>170</v>
       </c>
       <c r="F3" s="1">
         <v>1.0</v>

--- a/Phantom-Phoenix/Assets/ExcelImporter/PhantomPhoenixCardList.xlsx
+++ b/Phantom-Phoenix/Assets/ExcelImporter/PhantomPhoenixCardList.xlsx
@@ -502,7 +502,7 @@
     <t>uwitch744</t>
   </si>
   <si>
-    <t>【召喚時】\n次に使うスペルの\nコスト-3\nこの効果は重複しない</t>
+    <t>【召喚時】\n手札の全てのスペルの\nコスト-2</t>
   </si>
   <si>
     <t>switch7</t>
@@ -3582,7 +3582,7 @@
         <v>17</v>
       </c>
       <c r="L67" s="9" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="M67" s="7" t="s">
         <v>156</v>
@@ -3762,7 +3762,7 @@
         <v>17</v>
       </c>
       <c r="L71" s="9" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="M71" s="7" t="s">
         <v>164</v>
@@ -3819,7 +3819,7 @@
         <v>17</v>
       </c>
       <c r="L72" s="9" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="M72" s="7" t="s">
         <v>166</v>

--- a/Phantom-Phoenix/Assets/ExcelImporter/PhantomPhoenixCardList.xlsx
+++ b/Phantom-Phoenix/Assets/ExcelImporter/PhantomPhoenixCardList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="218">
   <si>
     <t>ID</t>
   </si>
@@ -523,17 +523,158 @@
     <t>6ダメージ\n味方ヒーローに\n固定3ダメージ\nこの対戦中に使用した\nスペルの数分\nコスト-1</t>
   </si>
   <si>
+    <t>uking111</t>
+  </si>
+  <si>
+    <t>playerUnit</t>
+  </si>
+  <si>
+    <t>【召喚時】味方ユニット1体を\n+1/+1</t>
+  </si>
+  <si>
+    <t>sking1</t>
+  </si>
+  <si>
+    <t>アイテムカードを\nランダムに3枚\n手札に加える</t>
+  </si>
+  <si>
+    <t>uking222</t>
+  </si>
+  <si>
+    <t>【召喚時】アイテムカードを\nランダムに2枚\n手札に加える</t>
+  </si>
+  <si>
+    <t>uking211</t>
+  </si>
+  <si>
+    <t>【召喚時】\n味方ユニットが居るなら+1/+1\n味方ユニットが居ないなら\n2/1/1を2体出す</t>
+  </si>
+  <si>
+    <t>sking2</t>
+  </si>
+  <si>
+    <t>味方ユニット1体に、\nこの味方ターン中、\n被ダメージ-3\nを付与する</t>
+  </si>
+  <si>
+    <t>sking2pierce</t>
+  </si>
+  <si>
+    <t>味方ユニット1体に\n貫通を付与し、\nATK+3</t>
+  </si>
+  <si>
+    <t>uking314</t>
+  </si>
+  <si>
+    <t>【被強化時】ATK+1</t>
+  </si>
+  <si>
+    <t>uking322</t>
+  </si>
+  <si>
+    <t>【召喚時】\n味方ユニット1体を\nHP+2し、\n挑発を付与する\n</t>
+  </si>
+  <si>
+    <t>itemer</t>
+  </si>
+  <si>
+    <t>【召喚時&amp;死亡時】\n【味方ターン終了時】\nアイテムカードを\nランダムに1枚\n手札に加える</t>
+  </si>
+  <si>
+    <t>uking433</t>
+  </si>
+  <si>
+    <t>【テンション上昇時】\nランダムな味方ユニットを+1/+1</t>
+  </si>
+  <si>
+    <t>uking443</t>
+  </si>
+  <si>
+    <t>【被強化時】\nランダムな敵ユニットに\n2ダメージ</t>
+  </si>
+  <si>
+    <t>uking456</t>
+  </si>
+  <si>
+    <t>このユニットは行動できない\n【味方ターン終了時】\nアイテムカードを\nランダムに1枚\n手札に加える</t>
+  </si>
+  <si>
+    <t>uking523</t>
+  </si>
+  <si>
+    <t>【召喚時】\nこのユニットを除く\n全ての味方ユニットを\n+1/+1</t>
+  </si>
+  <si>
+    <t>uking612</t>
+  </si>
+  <si>
+    <t>【召喚時】\nランダムな敵ユニットに\n1ダメージ\nこの対戦中に\n強化を行った回数分\n繰り返す</t>
+  </si>
+  <si>
+    <t>uking644</t>
+  </si>
+  <si>
+    <t>【召喚時】\味方ヒーローの\nテンションの数分\n味方ユニット1体の\nATKとHPを強化する</t>
+  </si>
+  <si>
+    <t>uking723</t>
+  </si>
+  <si>
+    <t>【被強化時】\n分裂する</t>
+  </si>
+  <si>
+    <t>uking722</t>
+  </si>
+  <si>
+    <t>【召喚時】\n後列の味方ユニットを\n死亡させる\n死亡させたユニットの\nATKとHPを吸収する</t>
+  </si>
+  <si>
+    <t>summoner</t>
+  </si>
+  <si>
+    <t>【召喚時】\n味方の手札から\nランダムなユニットを\n1体召喚する</t>
+  </si>
+  <si>
+    <t>uking834</t>
+  </si>
+  <si>
+    <t>この対戦中に\n強化を行った回数分\nコスト-1</t>
+  </si>
+  <si>
+    <t>uking946</t>
+  </si>
+  <si>
+    <t>【召喚時】\n味方ユニットが居るなら\n全ての味方ユニットを+2/+2\n味方ユニットが居ないなら\n+5/+3</t>
+  </si>
+  <si>
     <t>telf122</t>
   </si>
   <si>
     <t>telf111</t>
+  </si>
+  <si>
+    <t>tkingatk</t>
+  </si>
+  <si>
+    <t>【アイテムカード】\nユニット1体の\nATK+1</t>
+  </si>
+  <si>
+    <t>tkinghp</t>
+  </si>
+  <si>
+    <t>【アイテムカード】ユニット1体の\nHP+1</t>
+  </si>
+  <si>
+    <t>tkingatkhp</t>
+  </si>
+  <si>
+    <t>【アイテムカード】ユニット1体を\n+1/+1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -549,13 +690,35 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="&quot;Google Sans&quot;"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -564,7 +727,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -594,6 +757,15 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3821,7 +3993,7 @@
       <c r="L72" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="M72" s="7" t="s">
+      <c r="M72" s="10" t="s">
         <v>166</v>
       </c>
       <c r="N72" s="8"/>
@@ -3878,26 +4050,846 @@
       <c r="L73" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="M73" s="1" t="s">
+      <c r="M73" s="11" t="s">
         <v>168</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1">
+        <v>73.0</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F74" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G74" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H74" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M74" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1">
+        <v>74.0</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F75" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H75" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M75" s="12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1">
+        <v>75.0</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F76" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G76" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H76" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M76" s="11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1">
+        <v>76.0</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F77" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G77" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H77" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M77" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1">
+        <v>77.0</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F78" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H78" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M78" s="12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1">
+        <v>78.0</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F79" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H79" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M79" s="12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1">
+        <v>79.0</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F80" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G80" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H80" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M80" s="11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1">
+        <v>80.0</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F81" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G81" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H81" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M81" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1">
+        <v>81.0</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F82" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G82" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H82" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M82" s="11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1">
+        <v>82.0</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F83" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G83" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H83" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M83" s="11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1">
+        <v>83.0</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F84" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G84" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H84" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M84" s="11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1">
+        <v>84.0</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F85" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G85" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H85" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M85" s="11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1">
+        <v>85.0</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F86" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="G86" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H86" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M86" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1">
+        <v>86.0</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F87" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="G87" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H87" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M87" s="11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1">
+        <v>87.0</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F88" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="G88" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H88" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M88" s="11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1">
+        <v>88.0</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F89" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="G89" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H89" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M89" s="11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1">
+        <v>89.0</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F90" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="G90" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H90" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M90" s="11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1">
+        <v>90.0</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F91" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="G91" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H91" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M91" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1">
+        <v>91.0</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F92" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="G92" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H92" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M92" s="11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1">
+        <v>92.0</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F93" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="G93" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H93" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M93" s="12" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="$A$1:$AC$16"/>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L2:L73">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L2:L93">
       <formula1>"none,unit,enemyUnit,playerUnit,hero,unitOrHero,enemy,player,area,selectionArea,selectionPlayerArea,selectionEnemyArea"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:K73">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:K93">
       <formula1>"fast,taunt,snipe,pierce,doubleAction,none"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C73">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C93">
       <formula1>"unit,spell,item"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B73">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B93">
       <formula1>"witch,elf,king,knight,devil,common"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D73">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D93">
       <formula1>"R,SR,SSR"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3970,7 +4962,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>169</v>
+        <v>210</v>
       </c>
       <c r="F2" s="1">
         <v>1.0</v>
@@ -4011,7 +5003,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>170</v>
+        <v>211</v>
       </c>
       <c r="F3" s="1">
         <v>1.0</v>
@@ -4035,21 +5027,144 @@
         <v>17</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>10003.0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>10004.0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>10005.0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L2:L3">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L2:L6">
       <formula1>"none,unit,enemyUnit,playerUnit,hero,unitOrHero,enemy,player,area,selectionArea,selectionPlayerArea,selectionEnemyArea"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:K3">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:K6">
       <formula1>"fast,taunt,snipe,pierce,doubleAction,none"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C3">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C6">
       <formula1>"unit,spell,item"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B3">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B6">
       <formula1>"witch,elf,king,knight,devil,common"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D3">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D6">
       <formula1>"R,SR,SSR"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Phantom-Phoenix/Assets/ExcelImporter/PhantomPhoenixCardList.xlsx
+++ b/Phantom-Phoenix/Assets/ExcelImporter/PhantomPhoenixCardList.xlsx
@@ -529,7 +529,7 @@
     <t>playerUnit</t>
   </si>
   <si>
-    <t>【召喚時】味方ユニット1体を\n+1/+1</t>
+    <t>【召喚時】\n味方ユニット1体を\n+1/+1</t>
   </si>
   <si>
     <t>sking1</t>
@@ -541,37 +541,37 @@
     <t>uking222</t>
   </si>
   <si>
-    <t>【召喚時】アイテムカードを\nランダムに2枚\n手札に加える</t>
+    <t>【召喚時】\nアイテムカードを\nランダムに2枚\n手札に加える</t>
   </si>
   <si>
     <t>uking211</t>
   </si>
   <si>
-    <t>【召喚時】\n味方ユニットが居るなら+1/+1\n味方ユニットが居ないなら\n2/1/1を2体出す</t>
-  </si>
-  <si>
-    <t>sking2</t>
-  </si>
-  <si>
-    <t>味方ユニット1体に、\nこの味方ターン中、\n被ダメージ-3\nを付与する</t>
+    <t>【召喚時】\n味方ユニットが居ないなら\n2/1/1を2体出す</t>
+  </si>
+  <si>
+    <t>sking2taunt</t>
+  </si>
+  <si>
+    <t>味方ユニット1体に\n挑発を付与する\nさらにHP+3</t>
   </si>
   <si>
     <t>sking2pierce</t>
   </si>
   <si>
-    <t>味方ユニット1体に\n貫通を付与し、\nATK+3</t>
+    <t>味方ユニット1体に\n貫通を付与する\nさらにATK+3</t>
   </si>
   <si>
     <t>uking314</t>
   </si>
   <si>
-    <t>【被強化時】ATK+1</t>
+    <t>【被強化時】\nATK+1</t>
   </si>
   <si>
     <t>uking322</t>
   </si>
   <si>
-    <t>【召喚時】\n味方ユニット1体を\nHP+2し、\n挑発を付与する\n</t>
+    <t>【召喚時】\n味方ユニット1体を\nHP+2\nさらに挑発を付与する\n</t>
   </si>
   <si>
     <t>itemer</t>
@@ -583,7 +583,7 @@
     <t>uking433</t>
   </si>
   <si>
-    <t>【テンション上昇時】\nランダムな味方ユニットを+1/+1</t>
+    <t>【テンション上昇時】\nこのユニット以外の\nランダムな味方ユニットを\n+1/+1</t>
   </si>
   <si>
     <t>uking443</t>
@@ -595,7 +595,7 @@
     <t>uking456</t>
   </si>
   <si>
-    <t>このユニットは行動できない\n【味方ターン終了時】\nアイテムカードを\nランダムに1枚\n手札に加える</t>
+    <t>行動できない\n【味方ターン終了時】\nアイテムカードを\nランダムに1枚\n手札に加える</t>
   </si>
   <si>
     <t>uking523</t>
@@ -607,43 +607,43 @@
     <t>uking612</t>
   </si>
   <si>
-    <t>【召喚時】\nランダムな敵ユニットに\n1ダメージ\nこの対戦中に\n強化を行った回数分\n繰り返す</t>
+    <t>【召喚時】\nランダムな敵ユニットに\n1ダメージ\nこの対戦中に\nアイテムカードで\n強化を行った回数分繰り返す</t>
   </si>
   <si>
     <t>uking644</t>
   </si>
   <si>
-    <t>【召喚時】\味方ヒーローの\nテンションの数分\n味方ユニット1体の\nATKとHPを強化する</t>
+    <t>【召喚時】\n味方ヒーローの\nテンションの数分\n味方ユニット1体の\nATKとHPを強化する</t>
   </si>
   <si>
     <t>uking723</t>
   </si>
   <si>
-    <t>【被強化時】\n分裂する</t>
+    <t>【被強化時】\n7/2/3を出す</t>
   </si>
   <si>
     <t>uking722</t>
   </si>
   <si>
-    <t>【召喚時】\n後列の味方ユニットを\n死亡させる\n死亡させたユニットの\nATKとHPを吸収する</t>
-  </si>
-  <si>
-    <t>summoner</t>
-  </si>
-  <si>
-    <t>【召喚時】\n味方の手札から\nランダムなユニットを\n1体召喚する</t>
+    <t>【召喚時】\n後列の味方ユニットを\n全て死亡させる\n死亡させたユニットの\nATKとHPを吸収する</t>
+  </si>
+  <si>
+    <t>tamer</t>
+  </si>
+  <si>
+    <t>【召喚時】\n味方ユニット1体の\nATKとHPを\n2倍にする</t>
   </si>
   <si>
     <t>uking834</t>
   </si>
   <si>
-    <t>この対戦中に\n強化を行った回数分\nコスト-1</t>
+    <t>この対戦中に\nアイテムカードで\n強化を行った回数分\nコスト-1</t>
   </si>
   <si>
     <t>uking946</t>
   </si>
   <si>
-    <t>【召喚時】\n味方ユニットが居るなら\n全ての味方ユニットを+2/+2\n味方ユニットが居ないなら\n+5/+3</t>
+    <t>【召喚時】\n味方ユニットが居るなら\n全ての味方ユニットを\n+2/+2\n味方ユニットが居ないなら\n+5/+3</t>
   </si>
   <si>
     <t>telf122</t>
@@ -661,13 +661,13 @@
     <t>tkinghp</t>
   </si>
   <si>
-    <t>【アイテムカード】ユニット1体の\nHP+1</t>
+    <t>【アイテムカード】\nユニット1体の\nHP+1</t>
   </si>
   <si>
     <t>tkingatkhp</t>
   </si>
   <si>
-    <t>【アイテムカード】ユニット1体を\n+1/+1</t>
+    <t>【アイテムカード】\nユニット1体を\n+1/+1</t>
   </si>
 </sst>
 </file>
@@ -4130,7 +4130,7 @@
         <v>17</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="M75" s="12" t="s">
         <v>173</v>
@@ -4367,7 +4367,7 @@
         <v>2.0</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>17</v>
@@ -4771,10 +4771,10 @@
         <v>7.0</v>
       </c>
       <c r="G91" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="H91" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I91" s="1" t="s">
         <v>17</v>
@@ -4786,7 +4786,7 @@
         <v>17</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>17</v>
+        <v>170</v>
       </c>
       <c r="M91" s="11" t="s">
         <v>205</v>

--- a/Phantom-Phoenix/Assets/ExcelImporter/PhantomPhoenixCardList.xlsx
+++ b/Phantom-Phoenix/Assets/ExcelImporter/PhantomPhoenixCardList.xlsx
@@ -535,13 +535,13 @@
     <t>sking1</t>
   </si>
   <si>
-    <t>アイテムカードを\nランダムに3枚\n手札に加える</t>
+    <t>アイテムカードを\nランダムに2枚\n手札に加える</t>
   </si>
   <si>
     <t>uking222</t>
   </si>
   <si>
-    <t>【召喚時】\nアイテムカードを\nランダムに2枚\n手札に加える</t>
+    <t>【召喚時】\nアイテムカードを\nランダムに1枚\n手札に加える</t>
   </si>
   <si>
     <t>uking211</t>
@@ -553,16 +553,16 @@
     <t>sking2taunt</t>
   </si>
   <si>
-    <t>味方ユニット1体に\n挑発を付与する\nさらにHP+3</t>
+    <t>味方ユニット1体に\n挑発を付与する\nさらにHP+2</t>
   </si>
   <si>
     <t>sking2pierce</t>
   </si>
   <si>
-    <t>味方ユニット1体に\n貫通を付与する\nさらにATK+3</t>
-  </si>
-  <si>
-    <t>uking314</t>
+    <t>味方ユニット1体に\n貫通を付与する\nさらにATK+2</t>
+  </si>
+  <si>
+    <t>uking312</t>
   </si>
   <si>
     <t>【被強化時】\nATK+1</t>
@@ -571,7 +571,7 @@
     <t>uking322</t>
   </si>
   <si>
-    <t>【召喚時】\n味方ユニット1体を\nHP+2\nさらに挑発を付与する\n</t>
+    <t>挑発\n【召喚時】\n味方ユニット1体を\nHP+1\nさらに挑発を付与する\n</t>
   </si>
   <si>
     <t>itemer</t>
@@ -580,19 +580,19 @@
     <t>【召喚時&amp;死亡時】\n【味方ターン終了時】\nアイテムカードを\nランダムに1枚\n手札に加える</t>
   </si>
   <si>
-    <t>uking433</t>
+    <t>uking422</t>
   </si>
   <si>
     <t>【テンション上昇時】\nこのユニット以外の\nランダムな味方ユニットを\n+1/+1</t>
   </si>
   <si>
-    <t>uking443</t>
+    <t>uking431</t>
   </si>
   <si>
     <t>【被強化時】\nランダムな敵ユニットに\n2ダメージ</t>
   </si>
   <si>
-    <t>uking456</t>
+    <t>uking445</t>
   </si>
   <si>
     <t>行動できない\n【味方ターン終了時】\nアイテムカードを\nランダムに1枚\n手札に加える</t>
@@ -601,19 +601,19 @@
     <t>uking523</t>
   </si>
   <si>
-    <t>【召喚時】\nこのユニットを除く\n全ての味方ユニットを\n+1/+1</t>
+    <t>即撃\n【召喚時】\nこのユニットを除く\n全ての味方ユニットを\n+1/+1</t>
   </si>
   <si>
     <t>uking612</t>
   </si>
   <si>
-    <t>【召喚時】\nランダムな敵ユニットに\n1ダメージ\nこの対戦中に\nアイテムカードで\n強化を行った回数分繰り返す</t>
+    <t>【召喚時】\nランダムな敵ユニットに\n1ダメージ\nこの対戦中に\nアイテムカード\を\n使った回数分繰り返す</t>
   </si>
   <si>
     <t>uking644</t>
   </si>
   <si>
-    <t>【召喚時】\n味方ヒーローの\nテンションの数分\n味方ユニット1体の\nATKとHPを強化する</t>
+    <t>連撃\n【召喚時】\n味方ヒーローの\nテンションの数分\n味方ユニット1体の\nATKとHPを強化する</t>
   </si>
   <si>
     <t>uking723</t>
@@ -637,7 +637,7 @@
     <t>uking834</t>
   </si>
   <si>
-    <t>この対戦中に\nアイテムカードで\n強化を行った回数分\nコスト-1</t>
+    <t>挑発\nこの対戦中に\nアイテムカードを\n使った回数分\nコスト-1</t>
   </si>
   <si>
     <t>uking946</t>
@@ -4323,7 +4323,7 @@
         <v>1.0</v>
       </c>
       <c r="H80" s="1">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="I80" s="1" t="s">
         <v>17</v>
@@ -4402,10 +4402,10 @@
         <v>3.0</v>
       </c>
       <c r="G82" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="H82" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>17</v>
@@ -4443,13 +4443,13 @@
         <v>4.0</v>
       </c>
       <c r="G83" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="H83" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>17</v>
@@ -4484,10 +4484,10 @@
         <v>4.0</v>
       </c>
       <c r="G84" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="H84" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>17</v>
@@ -4525,10 +4525,10 @@
         <v>4.0</v>
       </c>
       <c r="G85" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H85" s="1">
         <v>5.0</v>
-      </c>
-      <c r="H85" s="1">
-        <v>6.0</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>17</v>
@@ -4859,7 +4859,7 @@
         <v>6.0</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>17</v>

--- a/Phantom-Phoenix/Assets/ExcelImporter/PhantomPhoenixCardList.xlsx
+++ b/Phantom-Phoenix/Assets/ExcelImporter/PhantomPhoenixCardList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="259">
   <si>
     <t>ID</t>
   </si>
@@ -535,13 +535,13 @@
     <t>sking1</t>
   </si>
   <si>
-    <t>アイテムカードを\nランダムに2枚\n手札に加える</t>
+    <t>アイテムカードを\nランダムに2~3枚\n手札に加える</t>
   </si>
   <si>
     <t>uking222</t>
   </si>
   <si>
-    <t>【召喚時】\nアイテムカードを\nランダムに1枚\n手札に加える</t>
+    <t>【召喚時】\nアイテムカードを\nランダムに1~2枚\n手札に加える</t>
   </si>
   <si>
     <t>uking211</t>
@@ -607,7 +607,7 @@
     <t>uking612</t>
   </si>
   <si>
-    <t>【召喚時】\nランダムな敵ユニットに\n1ダメージ\nこの対戦中に\nアイテムカード\を\n使った回数分繰り返す</t>
+    <t>【召喚時】\nランダムな敵ユニットに\n1ダメージ\nこの対戦中に\nアイテムカードを\n使用した回数分繰り返す</t>
   </si>
   <si>
     <t>uking644</t>
@@ -637,13 +637,136 @@
     <t>uking834</t>
   </si>
   <si>
-    <t>挑発\nこの対戦中に\nアイテムカードを\n使った回数分\nコスト-1</t>
+    <t>挑発\nこの対戦中に\nアイテムカードを\n使用した回数分\nコスト-1</t>
   </si>
   <si>
     <t>uking946</t>
   </si>
   <si>
     <t>【召喚時】\n味方ユニットが居るなら\n全ての味方ユニットを\n+2/+2\n味方ユニットが居ないなら\n+5/+3</t>
+  </si>
+  <si>
+    <t>demon</t>
+  </si>
+  <si>
+    <t>sdemon0</t>
+  </si>
+  <si>
+    <t>味方ヒーローの\nMP+!</t>
+  </si>
+  <si>
+    <t>udemon111</t>
+  </si>
+  <si>
+    <t>【召喚時】\nユニット1体を\n-1/-1</t>
+  </si>
+  <si>
+    <t>sdemon1</t>
+  </si>
+  <si>
+    <t>味方ユニットを\n死亡させる\n味方ヒーローの\n最大MP+1\nカードを1枚引く</t>
+  </si>
+  <si>
+    <t>udemon222</t>
+  </si>
+  <si>
+    <t>【召喚時】\n敵ヒーローの\nテンション-1</t>
+  </si>
+  <si>
+    <t>udemon223</t>
+  </si>
+  <si>
+    <t>敵ユニットカードの\nコスト+1</t>
+  </si>
+  <si>
+    <t>sdemon2</t>
+  </si>
+  <si>
+    <t>味方ユニットを\n死亡させる\nそのユニットのコスト分\n味方ヒーローの\nHPとMPを回復する</t>
+  </si>
+  <si>
+    <t>udemon321</t>
+  </si>
+  <si>
+    <t>【召喚時】\n前列の\n全てのユニットを\n-2/-2</t>
+  </si>
+  <si>
+    <t>udemon312</t>
+  </si>
+  <si>
+    <t>【召喚時】\nユニット1体を-1/-1\n敵ヒーローの\n最大MP-1\nカードを1枚引く</t>
+  </si>
+  <si>
+    <t>sdemon3</t>
+  </si>
+  <si>
+    <t>ユニット1体の\nATK-5</t>
+  </si>
+  <si>
+    <t>guardc</t>
+  </si>
+  <si>
+    <t>【召喚時】\n全ての敵ユニットを\n-2/-2</t>
+  </si>
+  <si>
+    <t>udemon413</t>
+  </si>
+  <si>
+    <t>【召喚時】\n敵ユニットの数分\n+1/+1\n全ての敵ユニットを\n-1/-1</t>
+  </si>
+  <si>
+    <t>udemon432</t>
+  </si>
+  <si>
+    <t>【召喚時】\n両ヒーローの\nテンションの合計分\nカードを引く</t>
+  </si>
+  <si>
+    <t>udemon533</t>
+  </si>
+  <si>
+    <t>【敵ドロー時】\n敵ヒーローに2ダメージ\n引いたカードのコスト+1</t>
+  </si>
+  <si>
+    <t>udemon524</t>
+  </si>
+  <si>
+    <t>【召喚時】\n敵手札2枚の\n9コスト以下の\nランダムなカードの\nコスト+1</t>
+  </si>
+  <si>
+    <t>sdemon5</t>
+  </si>
+  <si>
+    <t>全てのユニットの\nATK-3\n全ての敵ユニットの\nHP-1</t>
+  </si>
+  <si>
+    <t>minotaur</t>
+  </si>
+  <si>
+    <t>【被弱化時】\n同じ効果で\n敵ユニット全体を\n弱化させる</t>
+  </si>
+  <si>
+    <t>udemon634</t>
+  </si>
+  <si>
+    <t>【召喚時】\nユニット1体を-2/-2\n【死亡時】\nランダムな敵ユニットを\n-2/-2</t>
+  </si>
+  <si>
+    <t>udemon756</t>
+  </si>
+  <si>
+    <t>【攻撃時】\n敵ヒーローの\nテンション-3\nカードを2枚引く</t>
+  </si>
+  <si>
+    <t>udemon728</t>
+  </si>
+  <si>
+    <t>【ターン終了時】\nランダムな敵ユニットの\nATKまたはHPを-3</t>
+  </si>
+  <si>
+    <t>udemon922</t>
+  </si>
+  <si>
+    <t>【召喚時】\n全てのユニットを\n死亡させる\n死亡させた数分\n味方ヒーローの\nHPを回復</t>
   </si>
   <si>
     <t>telf122</t>
@@ -4874,22 +4997,858 @@
         <v>209</v>
       </c>
     </row>
+    <row r="94">
+      <c r="A94" s="1">
+        <v>93.0</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F94" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G94" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H94" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M94" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1">
+        <v>94.0</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F95" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G95" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H95" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M95" s="11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1">
+        <v>95.0</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F96" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H96" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M96" s="11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1">
+        <v>96.0</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F97" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G97" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H97" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M97" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1">
+        <v>97.0</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F98" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G98" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H98" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M98" s="11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1">
+        <v>98.0</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F99" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H99" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M99" s="11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1">
+        <v>99.0</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F100" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G100" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H100" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M100" s="11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F101" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G101" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H101" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M101" s="11" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1">
+        <v>101.0</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F102" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G102" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H102" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M102" s="11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1">
+        <v>102.0</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F103" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G103" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H103" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M103" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1">
+        <v>103.0</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F104" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G104" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H104" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M104" s="11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1">
+        <v>104.0</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F105" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G105" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H105" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M105" s="11" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1">
+        <v>105.0</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F106" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="G106" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H106" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M106" s="11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1">
+        <v>106.0</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F107" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="G107" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H107" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M107" s="11" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1">
+        <v>107.0</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F108" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="G108" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H108" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K108" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L108" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M108" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="N108" s="8"/>
+      <c r="O108" s="8"/>
+      <c r="P108" s="8"/>
+      <c r="Q108" s="8"/>
+      <c r="R108" s="8"/>
+      <c r="S108" s="8"/>
+      <c r="T108" s="8"/>
+      <c r="U108" s="8"/>
+      <c r="V108" s="8"/>
+      <c r="W108" s="8"/>
+      <c r="X108" s="8"/>
+      <c r="Y108" s="8"/>
+      <c r="Z108" s="8"/>
+      <c r="AA108" s="8"/>
+      <c r="AB108" s="8"/>
+      <c r="AC108" s="8"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1">
+        <v>108.0</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F109" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="G109" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H109" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M109" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1">
+        <v>109.0</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F110" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="G110" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H110" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M110" s="11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1">
+        <v>110.0</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F111" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="G111" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H111" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M111" s="11" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1">
+        <v>111.0</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F112" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="G112" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H112" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M112" s="11" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1">
+        <v>112.0</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F113" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="G113" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H113" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M113" s="11" t="s">
+        <v>250</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="$A$1:$AC$16"/>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L2:L93">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B113">
+      <formula1>"witch,elf,king,knight,demon,common"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L2:L113">
       <formula1>"none,unit,enemyUnit,playerUnit,hero,unitOrHero,enemy,player,area,selectionArea,selectionPlayerArea,selectionEnemyArea"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:K93">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:K113">
       <formula1>"fast,taunt,snipe,pierce,doubleAction,none"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C93">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C113">
       <formula1>"unit,spell,item"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B93">
-      <formula1>"witch,elf,king,knight,devil,common"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D93">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D113">
       <formula1>"R,SR,SSR"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4962,7 +5921,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>210</v>
+        <v>251</v>
       </c>
       <c r="F2" s="1">
         <v>1.0</v>
@@ -5003,7 +5962,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>211</v>
+        <v>252</v>
       </c>
       <c r="F3" s="1">
         <v>1.0</v>
@@ -5041,7 +6000,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>212</v>
+        <v>253</v>
       </c>
       <c r="F4" s="1">
         <v>0.0</v>
@@ -5065,7 +6024,7 @@
         <v>14</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>213</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5">
@@ -5082,7 +6041,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>214</v>
+        <v>255</v>
       </c>
       <c r="F5" s="1">
         <v>0.0</v>
@@ -5106,7 +6065,7 @@
         <v>14</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>215</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6">
@@ -5123,7 +6082,7 @@
         <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="F6" s="1">
         <v>1.0</v>
@@ -5147,7 +6106,7 @@
         <v>14</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>217</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/Phantom-Phoenix/Assets/ExcelImporter/PhantomPhoenixCardList.xlsx
+++ b/Phantom-Phoenix/Assets/ExcelImporter/PhantomPhoenixCardList.xlsx
@@ -658,7 +658,7 @@
     <t>udemon111</t>
   </si>
   <si>
-    <t>【召喚時】\nユニット1体を\n-1/-1</t>
+    <t>狙撃\n【召喚時】\nユニット1体を\n-1/-1</t>
   </si>
   <si>
     <t>sdemon1</t>
@@ -676,7 +676,7 @@
     <t>udemon223</t>
   </si>
   <si>
-    <t>敵ユニットカードの\nコスト+1</t>
+    <t>貫通\n敵ユニットカードの\nコスト+1</t>
   </si>
   <si>
     <t>sdemon2</t>
@@ -694,7 +694,7 @@
     <t>udemon312</t>
   </si>
   <si>
-    <t>【召喚時】\nユニット1体を-1/-1\n敵ヒーローの\n最大MP-1\nカードを1枚引く</t>
+    <t>【召喚時】\nユニット1体を-1/-1\n敵ヒーローの\n最大MP-1</t>
   </si>
   <si>
     <t>sdemon3</t>
@@ -706,7 +706,7 @@
     <t>guardc</t>
   </si>
   <si>
-    <t>【召喚時】\n全ての敵ユニットを\n-2/-2</t>
+    <t>狙撃　貫通\n【召喚時】\n全ての敵ユニットを\n-2/-2</t>
   </si>
   <si>
     <t>udemon413</t>
@@ -730,7 +730,7 @@
     <t>udemon524</t>
   </si>
   <si>
-    <t>【召喚時】\n敵手札2枚の\n9コスト以下の\nランダムなカードの\nコスト+1</t>
+    <t>【召喚時】\n敵手札の\n9コスト以下の\nランダムなカードの\nコスト+1\nこれを2回繰り返す</t>
   </si>
   <si>
     <t>sdemon5</t>
@@ -742,19 +742,19 @@
     <t>minotaur</t>
   </si>
   <si>
-    <t>【被弱化時】\n同じ効果で\n敵ユニット全体を\n弱化させる</t>
+    <t>挑発\n【被弱化時】n敵ユニット全体を\n同じ効果で弱化させる\nこの効果で被弱化効果は\n発動しない</t>
   </si>
   <si>
     <t>udemon634</t>
   </si>
   <si>
-    <t>【召喚時】\nユニット1体を-2/-2\n【死亡時】\nランダムな敵ユニットを\n-2/-2</t>
+    <t>挑発\n【召喚時】\nユニット1体を-2/-2\n【死亡時】\nランダムな敵ユニットを\n-2/-2</t>
   </si>
   <si>
     <t>udemon756</t>
   </si>
   <si>
-    <t>【攻撃時】\n敵ヒーローの\nテンション-3\nカードを2枚引く</t>
+    <t>狙撃\n【攻撃時】\n敵ヒーローの\nテンション-3\nカードを2枚引く</t>
   </si>
   <si>
     <t>udemon728</t>
@@ -5032,7 +5032,7 @@
         <v>17</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="M94" s="11" t="s">
         <v>212</v>
@@ -5605,8 +5605,8 @@
       <c r="K108" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L108" s="3" t="s">
-        <v>17</v>
+      <c r="L108" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="M108" s="7" t="s">
         <v>240</v>

--- a/Phantom-Phoenix/Assets/ExcelImporter/PhantomPhoenixCardList.xlsx
+++ b/Phantom-Phoenix/Assets/ExcelImporter/PhantomPhoenixCardList.xlsx
@@ -658,7 +658,7 @@
     <t>udemon111</t>
   </si>
   <si>
-    <t>狙撃\n【召喚時】\nユニット1体を\n-1/-1</t>
+    <t>狙撃\n【召喚時】\nユニット1体の\nATK-1</t>
   </si>
   <si>
     <t>sdemon1</t>
@@ -688,43 +688,43 @@
     <t>udemon321</t>
   </si>
   <si>
-    <t>【召喚時】\n前列の\n全てのユニットを\n-2/-2</t>
+    <t>【召喚時】\n前列の\n全てのユニットを\n-1/-1</t>
   </si>
   <si>
     <t>udemon312</t>
   </si>
   <si>
-    <t>【召喚時】\nユニット1体を-1/-1\n敵ヒーローの\n最大MP-1</t>
+    <t>【召喚時】\n味方ユニット1体を-1/-1\n敵ヒーローの\n最大MP-1</t>
   </si>
   <si>
     <t>sdemon3</t>
   </si>
   <si>
-    <t>ユニット1体の\nATK-5</t>
+    <t>ユニット1体の\nATK-4</t>
   </si>
   <si>
     <t>guardc</t>
   </si>
   <si>
-    <t>狙撃　貫通\n【召喚時】\n全ての敵ユニットを\n-2/-2</t>
+    <t>狙撃　貫通\n【召喚時】\n全ての敵ユニットを\n-1/-1</t>
   </si>
   <si>
     <t>udemon413</t>
   </si>
   <si>
-    <t>【召喚時】\n敵ユニットの数分\n+1/+1\n全ての敵ユニットを\n-1/-1</t>
+    <t>【召喚時】\n敵ユニットの数分\n+1/+1\n全ての敵ユニットの\nATK-1</t>
   </si>
   <si>
     <t>udemon432</t>
   </si>
   <si>
-    <t>【召喚時】\n両ヒーローの\nテンションの合計分\nカードを引く</t>
+    <t>【召喚時】\n味方ヒーローの\nテンションの数分\nカードを引く</t>
   </si>
   <si>
     <t>udemon533</t>
   </si>
   <si>
-    <t>【敵ドロー時】\n敵ヒーローに2ダメージ\n引いたカードのコスト+1</t>
+    <t>【敵ドロー時】\n敵ヒーローに1ダメージ\n引いたカードのコスト+1</t>
   </si>
   <si>
     <t>udemon524</t>
@@ -736,37 +736,37 @@
     <t>sdemon5</t>
   </si>
   <si>
-    <t>全てのユニットの\nATK-3\n全ての敵ユニットの\nHP-1</t>
+    <t>全てのユニットの\nATK-2\n全ての敵ユニットの\nHP-1</t>
   </si>
   <si>
     <t>minotaur</t>
   </si>
   <si>
-    <t>挑発\n【被弱化時】n敵ユニット全体を\n同じ効果で弱化させる\nこの効果で被弱化効果は\n発動しない</t>
+    <t>挑発\n【被弱化時】\n敵ユニット全体を\n同じ効果で弱化させる\nこの効果で被弱化効果は\n発動しない</t>
   </si>
   <si>
     <t>udemon634</t>
   </si>
   <si>
-    <t>挑発\n【召喚時】\nユニット1体を-2/-2\n【死亡時】\nランダムな敵ユニットを\n-2/-2</t>
+    <t>挑発\n【召喚時】\nユニット1体を-2/-2\n【死亡時】\nランダムな敵ユニットを\n-1/-1</t>
   </si>
   <si>
     <t>udemon756</t>
   </si>
   <si>
-    <t>狙撃\n【攻撃時】\n敵ヒーローの\nテンション-3\nカードを2枚引く</t>
+    <t>狙撃\n【攻撃時】\n敵ヒーローの\nテンション-2\nカードを1枚引く</t>
   </si>
   <si>
     <t>udemon728</t>
   </si>
   <si>
-    <t>【ターン終了時】\nランダムな敵ユニットの\nATKまたはHPを-3</t>
+    <t>【ターン終了時】\nランダムな敵ユニットの\nATKまたはHPを-2</t>
   </si>
   <si>
     <t>udemon922</t>
   </si>
   <si>
-    <t>【召喚時】\n全てのユニットを\n死亡させる\n死亡させた数分\n味方ヒーローの\nHPを回復</t>
+    <t>【召喚時】\n全てのユニットを\n死亡させる\n味方ヒーローの\n最大MP-3</t>
   </si>
   <si>
     <t>telf122</t>
@@ -5319,7 +5319,7 @@
         <v>17</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="M101" s="11" t="s">
         <v>226</v>

--- a/Phantom-Phoenix/Assets/ExcelImporter/PhantomPhoenixCardList.xlsx
+++ b/Phantom-Phoenix/Assets/ExcelImporter/PhantomPhoenixCardList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="260">
   <si>
     <t>ID</t>
   </si>
@@ -64,7 +64,7 @@
     <t>R</t>
   </si>
   <si>
-    <t>unit011</t>
+    <t>ucommon011</t>
   </si>
   <si>
     <t>none</t>
@@ -73,10 +73,10 @@
     <t>SR</t>
   </si>
   <si>
-    <t>unit122</t>
-  </si>
-  <si>
-    <t>unit102</t>
+    <t>ucommon122</t>
+  </si>
+  <si>
+    <t>ucommon102</t>
   </si>
   <si>
     <t>taunt</t>
@@ -85,7 +85,7 @@
     <t>挑発</t>
   </si>
   <si>
-    <t>unit121</t>
+    <t>ucommon121</t>
   </si>
   <si>
     <t>snipe</t>
@@ -115,10 +115,10 @@
     <t>【召喚時】\n味方ヒーローの\n最大MP-1</t>
   </si>
   <si>
-    <t>unit222</t>
-  </si>
-  <si>
-    <t>unit232</t>
+    <t>ucommon222</t>
+  </si>
+  <si>
+    <t>ucommon232</t>
   </si>
   <si>
     <t>pierce</t>
@@ -133,19 +133,19 @@
     <t>即撃</t>
   </si>
   <si>
-    <t>unit321</t>
+    <t>ucommon321</t>
   </si>
   <si>
     <t>【召喚時】\n両ヒーローは\nカードを2枚引く</t>
   </si>
   <si>
-    <t>unit333</t>
+    <t>ucommon333</t>
   </si>
   <si>
     <t>【味方ターン終了時】\nHPを1回復</t>
   </si>
   <si>
-    <t>unit322</t>
+    <t>ucommon322</t>
   </si>
   <si>
     <t>【味方ターン終了時】\nランダムな敵ユニットに\n1ダメージ</t>
@@ -157,10 +157,10 @@
     <t>挑発\n【召喚時&amp;死亡時】\n全てのユニットに\n1ダメージ</t>
   </si>
   <si>
-    <t>unit445</t>
-  </si>
-  <si>
-    <t>unit443</t>
+    <t>ucommon445</t>
+  </si>
+  <si>
+    <t>ucommon443</t>
   </si>
   <si>
     <t>enemyUnit</t>
@@ -169,7 +169,7 @@
     <t>【召喚時】\n敵ユニット1体に\n2ダメージ</t>
   </si>
   <si>
-    <t>unit434</t>
+    <t>ucommon434</t>
   </si>
   <si>
     <t>【召喚時】\nユニット1体を\n封印する</t>
@@ -181,13 +181,13 @@
     <t>【召喚時】\n味方ヒーローの\nHPを5回復</t>
   </si>
   <si>
-    <t>unit521</t>
+    <t>ucommon521</t>
   </si>
   <si>
     <t>挑発\n【死亡時】\n全ての敵ユニットを\n燃焼させる</t>
   </si>
   <si>
-    <t>unit517</t>
+    <t>ucommon517</t>
   </si>
   <si>
     <t>貫通\n【攻撃時】\n味方ヒーローは\nカードを1枚引く</t>
@@ -199,25 +199,25 @@
     <t>【召喚時】\nこのバトル中\n元のATKが2以下の\n味方ユニットを+1/+1</t>
   </si>
   <si>
-    <t>unit656</t>
-  </si>
-  <si>
-    <t>unit644</t>
+    <t>ucommon656</t>
+  </si>
+  <si>
+    <t>ucommon644</t>
   </si>
   <si>
     <t>【召喚時&amp;味方ターン終了時】\n味方フィールドに\n0/1/1を1体出す</t>
   </si>
   <si>
-    <t>unit633</t>
+    <t>ucommon633</t>
   </si>
   <si>
     <t>即撃\n味方ユニットの\n数分コスト-1</t>
   </si>
   <si>
-    <t>unit777</t>
-  </si>
-  <si>
-    <t>unit746</t>
+    <t>ucommon777</t>
+  </si>
+  <si>
+    <t>ucommon746</t>
   </si>
   <si>
     <t>【召喚時】\nユニット1体を選ぶ\n味方ならHPを4回復\n敵なら4ダメージ</t>
@@ -229,13 +229,13 @@
     <t>【前列死亡時】\n後列に復活する\n【後列死亡時】\n前列に復活する</t>
   </si>
   <si>
-    <t>unit877</t>
+    <t>ucommon877</t>
   </si>
   <si>
     <t>【召喚時】\n最大HPは1～13の\nランダムな値となる\nATKはHP-13となる</t>
   </si>
   <si>
-    <t>unit863</t>
+    <t>ucommon863</t>
   </si>
   <si>
     <t>【召喚時】\nランダムな味方ユニットを\n死亡させ、そうした場合、\nランダムな敵ユニットを\n死亡させる</t>
@@ -247,13 +247,13 @@
     <t>狙撃　連撃\n【死亡時】\n全ての味方ユニットに\n狙撃を付与する</t>
   </si>
   <si>
-    <t>unit925</t>
+    <t>ucommon925</t>
   </si>
   <si>
     <t>【召喚時】\n全てのユニットに\n4ダメージ</t>
   </si>
   <si>
-    <t>unit945</t>
+    <t>ucommon945</t>
   </si>
   <si>
     <t>【召喚時】\n1/0/2 挑発\n 2/2/2 挑発\n 1/2/1 狙撃\n 2/3/2 貫通\nを出す</t>
@@ -412,7 +412,7 @@
     <t>switch1</t>
   </si>
   <si>
-    <t>全ての敵ユニットに\n1ダメージ\n味方ヒーローに1ダメージ</t>
+    <t>全ての敵ユニットに\n1ダメージ\n味方ヒーローに\n1ダメージ</t>
   </si>
   <si>
     <t>uwitch221</t>
@@ -436,7 +436,10 @@
     <t>switch2h</t>
   </si>
   <si>
-    <t>HPを3回復する\nカードを1枚引く</t>
+    <t>player</t>
+  </si>
+  <si>
+    <t>味方のHPを\n3回復する\nカードを1枚引く</t>
   </si>
   <si>
     <t>uwitch315</t>
@@ -472,7 +475,7 @@
     <t>switch4h</t>
   </si>
   <si>
-    <t>HPを6回復する\nカードを2枚引く</t>
+    <t>味方のHPを\n6回復する\nカードを2枚引く</t>
   </si>
   <si>
     <t>uwitch545</t>
@@ -496,7 +499,7 @@
     <t>zodiac</t>
   </si>
   <si>
-    <t>【召喚時】両ヒーローに\n7ダメージ</t>
+    <t>【召喚時】\n両ヒーローに\n7ダメージ</t>
   </si>
   <si>
     <t>uwitch744</t>
@@ -547,7 +550,7 @@
     <t>uking211</t>
   </si>
   <si>
-    <t>【召喚時】\n味方ユニットが居ないなら\n2/1/1を2体出す</t>
+    <t>【召喚時】\n味方ユニットがいないなら\n2/1/1を2体出す</t>
   </si>
   <si>
     <t>sking2taunt</t>
@@ -607,7 +610,7 @@
     <t>uking612</t>
   </si>
   <si>
-    <t>【召喚時】\nランダムな敵ユニットに\n1ダメージ\nこの対戦中に\nアイテムカードを\n使用した回数分繰り返す</t>
+    <t>【召喚時】\nランダムな敵ユニットに\n1ダメージ\nこの対戦中に\nアイテムカードを\n使用した回数分行う</t>
   </si>
   <si>
     <t>uking644</t>
@@ -643,7 +646,7 @@
     <t>uking946</t>
   </si>
   <si>
-    <t>【召喚時】\n味方ユニットが居るなら\n全ての味方ユニットを\n+2/+2\n味方ユニットが居ないなら\n+5/+3</t>
+    <t>【召喚時】\n味方ユニットがいるなら\n全ての味方ユニットを\n+2/+2\n味方ユニットがいないなら\n+5/+3</t>
   </si>
   <si>
     <t>demon</t>
@@ -694,7 +697,7 @@
     <t>udemon312</t>
   </si>
   <si>
-    <t>【召喚時】\n味方ユニット1体を-1/-1\n敵ヒーローの\n最大MP-1</t>
+    <t>【召喚時】\n味方ユニット1体を-1/-1\nそうした場合、\n敵ヒーローの\n最大MP-1</t>
   </si>
   <si>
     <t>sdemon3</t>
@@ -730,7 +733,7 @@
     <t>udemon524</t>
   </si>
   <si>
-    <t>【召喚時】\n敵手札の\n9コスト以下の\nランダムなカードの\nコスト+1\nこれを2回繰り返す</t>
+    <t>【召喚時】\n敵手札の\n9コスト以下の\nランダムなカードの\nコスト+1\nこれを2回行う</t>
   </si>
   <si>
     <t>sdemon5</t>
@@ -3549,10 +3552,10 @@
         <v>17</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="60">
@@ -3569,7 +3572,7 @@
         <v>15</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F60" s="1">
         <v>3.0</v>
@@ -3593,7 +3596,7 @@
         <v>17</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61">
@@ -3610,7 +3613,7 @@
         <v>26</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F61" s="1">
         <v>3.0</v>
@@ -3634,7 +3637,7 @@
         <v>17</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62">
@@ -3651,7 +3654,7 @@
         <v>15</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F62" s="1">
         <v>4.0</v>
@@ -3675,7 +3678,7 @@
         <v>17</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="63">
@@ -3692,7 +3695,7 @@
         <v>18</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F63" s="1">
         <v>4.0</v>
@@ -3716,7 +3719,7 @@
         <v>17</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="64">
@@ -3733,7 +3736,7 @@
         <v>18</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F64" s="1">
         <v>4.0</v>
@@ -3757,7 +3760,7 @@
         <v>129</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="65">
@@ -3774,7 +3777,7 @@
         <v>18</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F65" s="1">
         <v>4.0</v>
@@ -3795,10 +3798,10 @@
         <v>17</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="66">
@@ -3815,7 +3818,7 @@
         <v>18</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F66" s="1">
         <v>5.0</v>
@@ -3839,7 +3842,7 @@
         <v>17</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="67">
@@ -3856,7 +3859,7 @@
         <v>15</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F67" s="5">
         <v>5.0</v>
@@ -3880,7 +3883,7 @@
         <v>94</v>
       </c>
       <c r="M67" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N67" s="8"/>
       <c r="O67" s="8"/>
@@ -3913,7 +3916,7 @@
         <v>15</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F68" s="1">
         <v>6.0</v>
@@ -3937,7 +3940,7 @@
         <v>17</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="69">
@@ -3954,7 +3957,7 @@
         <v>26</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F69" s="1">
         <v>6.0</v>
@@ -3978,7 +3981,7 @@
         <v>17</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="70">
@@ -3995,7 +3998,7 @@
         <v>18</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F70" s="1">
         <v>7.0</v>
@@ -4019,7 +4022,7 @@
         <v>17</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="71">
@@ -4036,7 +4039,7 @@
         <v>18</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F71" s="5">
         <v>7.0</v>
@@ -4060,7 +4063,7 @@
         <v>94</v>
       </c>
       <c r="M71" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N71" s="8"/>
       <c r="O71" s="8"/>
@@ -4093,7 +4096,7 @@
         <v>18</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F72" s="5">
         <v>10.0</v>
@@ -4117,7 +4120,7 @@
         <v>94</v>
       </c>
       <c r="M72" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N72" s="8"/>
       <c r="O72" s="8"/>
@@ -4150,7 +4153,7 @@
         <v>18</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F73" s="1">
         <v>20.0</v>
@@ -4174,7 +4177,7 @@
         <v>129</v>
       </c>
       <c r="M73" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="74">
@@ -4191,7 +4194,7 @@
         <v>15</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F74" s="1">
         <v>1.0</v>
@@ -4212,10 +4215,10 @@
         <v>17</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M74" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="75">
@@ -4232,7 +4235,7 @@
         <v>15</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F75" s="1">
         <v>1.0</v>
@@ -4256,7 +4259,7 @@
         <v>94</v>
       </c>
       <c r="M75" s="12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="76">
@@ -4273,7 +4276,7 @@
         <v>15</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F76" s="1">
         <v>2.0</v>
@@ -4297,7 +4300,7 @@
         <v>17</v>
       </c>
       <c r="M76" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="77">
@@ -4314,7 +4317,7 @@
         <v>18</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F77" s="1">
         <v>2.0</v>
@@ -4338,7 +4341,7 @@
         <v>17</v>
       </c>
       <c r="M77" s="11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="78">
@@ -4355,7 +4358,7 @@
         <v>15</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F78" s="1">
         <v>2.0</v>
@@ -4376,10 +4379,10 @@
         <v>17</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M78" s="12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="79">
@@ -4396,7 +4399,7 @@
         <v>15</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F79" s="1">
         <v>2.0</v>
@@ -4417,10 +4420,10 @@
         <v>17</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M79" s="12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="80">
@@ -4437,7 +4440,7 @@
         <v>15</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F80" s="1">
         <v>3.0</v>
@@ -4461,7 +4464,7 @@
         <v>17</v>
       </c>
       <c r="M80" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="81">
@@ -4478,7 +4481,7 @@
         <v>18</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F81" s="1">
         <v>3.0</v>
@@ -4499,10 +4502,10 @@
         <v>17</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M81" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="82">
@@ -4519,7 +4522,7 @@
         <v>26</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F82" s="1">
         <v>3.0</v>
@@ -4543,7 +4546,7 @@
         <v>17</v>
       </c>
       <c r="M82" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="83">
@@ -4560,7 +4563,7 @@
         <v>15</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F83" s="1">
         <v>4.0</v>
@@ -4584,7 +4587,7 @@
         <v>17</v>
       </c>
       <c r="M83" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="84">
@@ -4601,7 +4604,7 @@
         <v>15</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F84" s="1">
         <v>4.0</v>
@@ -4625,7 +4628,7 @@
         <v>17</v>
       </c>
       <c r="M84" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="85">
@@ -4642,7 +4645,7 @@
         <v>18</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F85" s="1">
         <v>4.0</v>
@@ -4666,7 +4669,7 @@
         <v>17</v>
       </c>
       <c r="M85" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="86">
@@ -4683,7 +4686,7 @@
         <v>18</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F86" s="1">
         <v>5.0</v>
@@ -4707,7 +4710,7 @@
         <v>17</v>
       </c>
       <c r="M86" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="87">
@@ -4724,7 +4727,7 @@
         <v>18</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F87" s="1">
         <v>6.0</v>
@@ -4748,7 +4751,7 @@
         <v>17</v>
       </c>
       <c r="M87" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="88">
@@ -4765,7 +4768,7 @@
         <v>18</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F88" s="1">
         <v>6.0</v>
@@ -4786,10 +4789,10 @@
         <v>17</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M88" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="89">
@@ -4806,7 +4809,7 @@
         <v>15</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F89" s="1">
         <v>7.0</v>
@@ -4830,7 +4833,7 @@
         <v>17</v>
       </c>
       <c r="M89" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="90">
@@ -4847,7 +4850,7 @@
         <v>18</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F90" s="1">
         <v>7.0</v>
@@ -4871,7 +4874,7 @@
         <v>17</v>
       </c>
       <c r="M90" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="91">
@@ -4888,7 +4891,7 @@
         <v>26</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F91" s="1">
         <v>7.0</v>
@@ -4909,10 +4912,10 @@
         <v>17</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M91" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="92">
@@ -4929,7 +4932,7 @@
         <v>18</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F92" s="1">
         <v>8.0</v>
@@ -4953,7 +4956,7 @@
         <v>17</v>
       </c>
       <c r="M92" s="11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="93">
@@ -4970,7 +4973,7 @@
         <v>18</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F93" s="1">
         <v>9.0</v>
@@ -4994,7 +4997,7 @@
         <v>17</v>
       </c>
       <c r="M93" s="12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="94">
@@ -5002,7 +5005,7 @@
         <v>93.0</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>92</v>
@@ -5011,7 +5014,7 @@
         <v>15</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F94" s="1">
         <v>0.0</v>
@@ -5035,7 +5038,7 @@
         <v>94</v>
       </c>
       <c r="M94" s="11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="95">
@@ -5043,7 +5046,7 @@
         <v>94.0</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>14</v>
@@ -5052,7 +5055,7 @@
         <v>15</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F95" s="1">
         <v>1.0</v>
@@ -5076,7 +5079,7 @@
         <v>14</v>
       </c>
       <c r="M95" s="11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="96">
@@ -5084,7 +5087,7 @@
         <v>95.0</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>92</v>
@@ -5093,7 +5096,7 @@
         <v>18</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F96" s="1">
         <v>1.0</v>
@@ -5114,10 +5117,10 @@
         <v>17</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M96" s="11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="97">
@@ -5125,7 +5128,7 @@
         <v>96.0</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>14</v>
@@ -5134,7 +5137,7 @@
         <v>15</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F97" s="1">
         <v>2.0</v>
@@ -5158,7 +5161,7 @@
         <v>17</v>
       </c>
       <c r="M97" s="11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="98">
@@ -5166,7 +5169,7 @@
         <v>97.0</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>14</v>
@@ -5175,7 +5178,7 @@
         <v>18</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F98" s="1">
         <v>2.0</v>
@@ -5199,7 +5202,7 @@
         <v>17</v>
       </c>
       <c r="M98" s="11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="99">
@@ -5207,7 +5210,7 @@
         <v>98.0</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>92</v>
@@ -5216,7 +5219,7 @@
         <v>18</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F99" s="1">
         <v>2.0</v>
@@ -5237,10 +5240,10 @@
         <v>17</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M99" s="11" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="100">
@@ -5248,7 +5251,7 @@
         <v>99.0</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>14</v>
@@ -5257,7 +5260,7 @@
         <v>18</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F100" s="1">
         <v>3.0</v>
@@ -5281,7 +5284,7 @@
         <v>17</v>
       </c>
       <c r="M100" s="11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="101">
@@ -5289,7 +5292,7 @@
         <v>100.0</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>14</v>
@@ -5298,7 +5301,7 @@
         <v>18</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F101" s="1">
         <v>3.0</v>
@@ -5319,10 +5322,10 @@
         <v>17</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M101" s="11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="102">
@@ -5330,7 +5333,7 @@
         <v>101.0</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>92</v>
@@ -5339,7 +5342,7 @@
         <v>18</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F102" s="1">
         <v>3.0</v>
@@ -5363,7 +5366,7 @@
         <v>14</v>
       </c>
       <c r="M102" s="11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="103">
@@ -5371,7 +5374,7 @@
         <v>102.0</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>14</v>
@@ -5380,7 +5383,7 @@
         <v>26</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F103" s="1">
         <v>3.0</v>
@@ -5404,7 +5407,7 @@
         <v>17</v>
       </c>
       <c r="M103" s="11" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="104">
@@ -5412,7 +5415,7 @@
         <v>103.0</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>14</v>
@@ -5421,7 +5424,7 @@
         <v>15</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F104" s="1">
         <v>4.0</v>
@@ -5445,7 +5448,7 @@
         <v>17</v>
       </c>
       <c r="M104" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="105">
@@ -5453,7 +5456,7 @@
         <v>104.0</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>14</v>
@@ -5462,7 +5465,7 @@
         <v>18</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F105" s="1">
         <v>4.0</v>
@@ -5486,7 +5489,7 @@
         <v>17</v>
       </c>
       <c r="M105" s="11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="106">
@@ -5494,7 +5497,7 @@
         <v>105.0</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>14</v>
@@ -5503,7 +5506,7 @@
         <v>18</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F106" s="1">
         <v>5.0</v>
@@ -5527,7 +5530,7 @@
         <v>17</v>
       </c>
       <c r="M106" s="11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="107">
@@ -5535,7 +5538,7 @@
         <v>106.0</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>14</v>
@@ -5544,7 +5547,7 @@
         <v>18</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F107" s="1">
         <v>5.0</v>
@@ -5568,7 +5571,7 @@
         <v>17</v>
       </c>
       <c r="M107" s="11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="108">
@@ -5576,7 +5579,7 @@
         <v>107.0</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>92</v>
@@ -5585,7 +5588,7 @@
         <v>18</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F108" s="5">
         <v>5.0</v>
@@ -5609,7 +5612,7 @@
         <v>94</v>
       </c>
       <c r="M108" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N108" s="8"/>
       <c r="O108" s="8"/>
@@ -5633,7 +5636,7 @@
         <v>108.0</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>14</v>
@@ -5642,7 +5645,7 @@
         <v>26</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F109" s="1">
         <v>5.0</v>
@@ -5666,7 +5669,7 @@
         <v>17</v>
       </c>
       <c r="M109" s="11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="110">
@@ -5674,7 +5677,7 @@
         <v>109.0</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>14</v>
@@ -5683,7 +5686,7 @@
         <v>15</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F110" s="1">
         <v>6.0</v>
@@ -5707,7 +5710,7 @@
         <v>14</v>
       </c>
       <c r="M110" s="11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="111">
@@ -5715,7 +5718,7 @@
         <v>110.0</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>14</v>
@@ -5724,7 +5727,7 @@
         <v>15</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F111" s="1">
         <v>7.0</v>
@@ -5748,7 +5751,7 @@
         <v>17</v>
       </c>
       <c r="M111" s="11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="112">
@@ -5756,7 +5759,7 @@
         <v>111.0</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>14</v>
@@ -5765,7 +5768,7 @@
         <v>18</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F112" s="1">
         <v>7.0</v>
@@ -5789,7 +5792,7 @@
         <v>17</v>
       </c>
       <c r="M112" s="11" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="113">
@@ -5797,7 +5800,7 @@
         <v>112.0</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>14</v>
@@ -5806,7 +5809,7 @@
         <v>18</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F113" s="1">
         <v>9.0</v>
@@ -5830,15 +5833,12 @@
         <v>17</v>
       </c>
       <c r="M113" s="11" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="$A$1:$AC$16"/>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B113">
-      <formula1>"witch,elf,king,knight,demon,common"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L2:L113">
       <formula1>"none,unit,enemyUnit,playerUnit,hero,unitOrHero,enemy,player,area,selectionArea,selectionPlayerArea,selectionEnemyArea"</formula1>
     </dataValidation>
@@ -5847,6 +5847,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C113">
       <formula1>"unit,spell,item"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B113">
+      <formula1>"witch,elf,king,demon,common"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D113">
       <formula1>"R,SR,SSR"</formula1>
@@ -5921,7 +5924,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F2" s="1">
         <v>1.0</v>
@@ -5962,7 +5965,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F3" s="1">
         <v>1.0</v>
@@ -6000,7 +6003,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F4" s="1">
         <v>0.0</v>
@@ -6024,7 +6027,7 @@
         <v>14</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5">
@@ -6041,7 +6044,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F5" s="1">
         <v>0.0</v>
@@ -6065,7 +6068,7 @@
         <v>14</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6">
@@ -6082,7 +6085,7 @@
         <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F6" s="1">
         <v>1.0</v>
@@ -6106,7 +6109,7 @@
         <v>14</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/Phantom-Phoenix/Assets/ExcelImporter/PhantomPhoenixCardList.xlsx
+++ b/Phantom-Phoenix/Assets/ExcelImporter/PhantomPhoenixCardList.xlsx
@@ -271,13 +271,13 @@
     <t>uelf101</t>
   </si>
   <si>
-    <t>【死亡時】\nこの場所に\n1/1/1を1体出す</t>
+    <t>【死亡時】\nこの場所に\n1/2/2を1体出す</t>
   </si>
   <si>
     <t>uelf221</t>
   </si>
   <si>
-    <t>【テンション上昇時】\n味方フィールドに\n1/1/1を1体出す</t>
+    <t>【テンション上昇時】\n味方フィールドに\n1/2/2を1体出す</t>
   </si>
   <si>
     <t>uelf212</t>
@@ -289,7 +289,7 @@
     <t>uelf222</t>
   </si>
   <si>
-    <t>【攻撃時】\n味方フィールドに\n1/1/1を1体出す</t>
+    <t>【攻撃時】\n味方フィールドに\n1/2/2を1体出す</t>
   </si>
   <si>
     <t>spell</t>
@@ -307,19 +307,19 @@
     <t>uelf312</t>
   </si>
   <si>
-    <t>【召喚時】\nこのユニットの上下に\n1/1/1を出す</t>
+    <t>【召喚時】\nこのユニットの上下に\n1/2/2を出す</t>
   </si>
   <si>
     <t>uelf301</t>
   </si>
   <si>
-    <t>【召喚時】\n1コスト以下の\n全ての味方ユニットを\n死亡させる\n死亡させた数分+1/+1</t>
+    <t>【召喚時】\n1コスト以下の\n全ての味方ユニットを\n死亡させる\n死亡させた数分+1/+2</t>
   </si>
   <si>
     <t>self3</t>
   </si>
   <si>
-    <t>敵ユニット1体に\n1ダメージ\n1コスト以下の\n味方ユニットの数分\nダメージ+!</t>
+    <t>敵ユニット1体に\n1ダメージ\n1コスト以下の\n味方ユニットの数分\nダメージ+1</t>
   </si>
   <si>
     <t>guarda</t>
@@ -343,7 +343,7 @@
     <t>uelf416</t>
   </si>
   <si>
-    <t>挑発\n【攻撃時&amp;被攻撃時】\n味方フィールドに\n1/1/1を1体出す</t>
+    <t>挑発\n【攻撃時&amp;被攻撃時】\n味方フィールドに\n1/2/2を1体出す</t>
   </si>
   <si>
     <t>uelf433</t>
@@ -355,19 +355,19 @@
     <t>self4</t>
   </si>
   <si>
-    <t>全ての敵ユニットに\n1ダメージ\n1/1/1を3体出す</t>
+    <t>全ての敵ユニットに\n1ダメージ\n1/2/2を3体出す</t>
   </si>
   <si>
     <t>uelf542</t>
   </si>
   <si>
-    <t>【召喚時】\n味方と敵の\n全てのフィールドに\n1/1/1を出す</t>
+    <t>【召喚時】\n味方と敵の\n全てのフィールドに\n1/2/2を出す</t>
   </si>
   <si>
     <t>uelf525</t>
   </si>
   <si>
-    <t>【味方ターン終了時】\n前列にいるなら、\n1/1/1を2体出す</t>
+    <t>【味方ターン終了時】\n前列にいるなら、\n1/2/2を2体出す</t>
   </si>
   <si>
     <t>uelf622</t>
@@ -382,7 +382,7 @@
     <t>uelf633</t>
   </si>
   <si>
-    <t>【テンション上昇時】\n味方フィールドに\n1/1/1を2体出す</t>
+    <t>【テンション上昇時】\n味方フィールドに\n1/2/2を2体出す</t>
   </si>
   <si>
     <t>uelf711</t>
@@ -772,10 +772,10 @@
     <t>【召喚時】\n全てのユニットを\n死亡させる\n味方ヒーローの\n最大MP-3</t>
   </si>
   <si>
+    <t>telf122tension</t>
+  </si>
+  <si>
     <t>telf122</t>
-  </si>
-  <si>
-    <t>telf111</t>
   </si>
   <si>
     <t>tkingatk</t>
@@ -5971,10 +5971,10 @@
         <v>1.0</v>
       </c>
       <c r="G3" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H3" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>17</v>
